--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94DC1C2-D329-4126-986B-A13B7B2A38BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B49B4A-890F-494B-BB95-2BBC34B4AE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="247">
   <si>
     <t>owner</t>
   </si>
@@ -760,6 +760,12 @@
   </si>
   <si>
     <t>Keye Li</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
 </sst>
 </file>
@@ -15796,10 +15802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15807,323 +15813,404 @@
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>243</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -16293,7 +16380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -16343,12 +16430,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -16388,7 +16475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -16443,7 +16530,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -16488,7 +16575,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -16508,7 +16595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -16518,12 +16605,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -16563,7 +16650,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -16638,7 +16725,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -16653,7 +16740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -16693,7 +16780,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -16773,7 +16860,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -16873,7 +16960,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -17008,85 +17095,88 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="269">
   <si>
     <t xml:space="preserve">project name</t>
   </si>
@@ -154,61 +154,121 @@
     <t xml:space="preserve">IN PROGRESS</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-beanutils</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons BSF</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-bsf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Chain</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-chain</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons CLI</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-cli</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Codec</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-codec</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Collections</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-collections</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Compress</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-compress</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Configuration</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-configuration</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Crypto</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-crypto</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons CSV</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-csv</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Daemon</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-daemon</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons DBCP</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-dbcp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons DbUtils</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-dbutils</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Digester</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-digester</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Email</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-email</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Exec</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-exec</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons FileUpload</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-fileupload</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Functor</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-functor</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons Geometry</t>
   </si>
   <si>
+    <t xml:space="preserve">commons-geometry</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Apache Commons HttpClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commons-httpclient</t>
   </si>
   <si>
     <t xml:space="preserve"> Apache Commons Imaging</t>
@@ -776,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -806,6 +866,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -853,16 +919,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -966,7 +1036,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="365760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -987,9 +1057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,7 +1073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="548640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,9 +1094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1040,7 +1110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="731520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,9 +1131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1077,7 +1147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="914400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,9 +1168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1114,7 +1184,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1097280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1135,9 +1205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1151,7 +1221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1280160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,9 +1242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1188,7 +1258,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1463040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,9 +1279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1225,7 +1295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1645920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1246,9 +1316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1262,7 +1332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1828800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,9 +1353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1299,7 +1369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2011680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1320,9 +1390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1336,7 +1406,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2194560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1357,9 +1427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1373,7 +1443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2377440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,9 +1464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1410,7 +1480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2560320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,9 +1501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1447,7 +1517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2743200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,9 +1538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1484,7 +1554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2926080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1505,9 +1575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1521,7 +1591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3108960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1542,9 +1612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1558,7 +1628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3291840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,9 +1649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,7 +1665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3474720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,9 +1686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1632,7 +1702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3657600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,9 +1723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1669,7 +1739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3840480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1706,7 +1776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4023360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1727,9 +1797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1743,7 +1813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4206240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1764,9 +1834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1780,7 +1850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4389120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1801,9 +1871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1817,7 +1887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4572000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,9 +1908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,7 +1924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4754880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,9 +1945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1891,7 +1961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4937760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1912,9 +1982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1928,7 +1998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5120640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,9 +2019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1965,7 +2035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5303520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1986,9 +2056,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2002,7 +2072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5486400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2023,9 +2093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2039,7 +2109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5669280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,9 +2130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2076,7 +2146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5852160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,9 +2167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2113,7 +2183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6035040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,9 +2204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2150,7 +2220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6217920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2171,9 +2241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2187,7 +2257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6400800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2208,9 +2278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2224,7 +2294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6583680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2245,9 +2315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2261,7 +2331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6766560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,11 +2348,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
@@ -2297,8 +2367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6949440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="6955920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2315,13 +2385,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>183240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2334,8 +2404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7132320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="7138800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,7 +2426,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
@@ -2371,8 +2441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7315200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="7321680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,13 +2459,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>170640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2408,8 +2478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7498080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="7504560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,11 +2496,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>164520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -2445,8 +2515,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7680960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="7687800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2467,7 +2537,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
@@ -2482,8 +2552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7863840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="7870320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2500,13 +2570,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>151560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2519,8 +2589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8046720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="8053200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2541,9 +2611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2556,8 +2626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8229600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="8236080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,7 +2648,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
@@ -2593,8 +2663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8412480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="8418960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2611,13 +2681,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>132480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2630,8 +2700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8595360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="8601840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2652,9 +2722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2667,8 +2737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8778240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="8784720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2689,7 +2759,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
@@ -2704,8 +2774,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8961120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="8967600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,13 +2792,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2741,8 +2811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9144000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="9150480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2763,7 +2833,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
@@ -2778,8 +2848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9326880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="9333360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2796,13 +2866,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2815,8 +2885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9509760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="9516240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,11 +2903,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>94680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
@@ -2852,8 +2922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9692640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="9699480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2874,7 +2944,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
@@ -2889,8 +2959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9875520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="9882000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2907,13 +2977,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>81720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2926,8 +2996,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10058400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="10064880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2944,11 +3014,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
@@ -2963,8 +3033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10241280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="10248120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +3055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3000,8 +3070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10424160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="10430640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3018,11 +3088,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3037,8 +3107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10607040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="10613520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3055,11 +3125,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3074,8 +3144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10789920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="10796400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3092,11 +3162,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3111,8 +3181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10972800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="10979280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3129,11 +3199,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3148,8 +3218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11155680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="11162160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3166,11 +3236,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3185,8 +3255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11338560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="11345040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3203,11 +3273,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3222,8 +3292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11521440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="11527920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3240,11 +3310,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3259,8 +3329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11704320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="11710800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3277,11 +3347,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3296,8 +3366,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11887200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="11893680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3314,11 +3384,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3333,8 +3403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12070080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="12076560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3351,11 +3421,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3370,8 +3440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12252960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="12259440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3388,11 +3458,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3407,8 +3477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12435840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="12442320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3425,11 +3495,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3444,8 +3514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12618720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="12625200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3462,11 +3532,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3481,8 +3551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12801600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="12808080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3499,11 +3569,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3518,8 +3588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12984480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="12990960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3536,11 +3606,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3555,8 +3625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13167360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="13173840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3573,11 +3643,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3592,8 +3662,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13350240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="13356720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3610,11 +3680,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3629,8 +3699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13533120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="13539600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3647,11 +3717,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3666,8 +3736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13716000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="13722480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3684,11 +3754,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3703,8 +3773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13898880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="13905360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3721,11 +3791,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3740,8 +3810,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14081760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="14088240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3758,11 +3828,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3777,8 +3847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14264640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="14271120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3795,11 +3865,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3814,8 +3884,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14447520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="14454000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3832,11 +3902,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3851,8 +3921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14630400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="14636880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3869,11 +3939,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3888,8 +3958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14813280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="14819760"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3906,11 +3976,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3925,8 +3995,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14996160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="15002640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3943,11 +4013,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3962,8 +4032,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15179040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="15185520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3980,11 +4050,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3999,8 +4069,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15361920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="15368400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4017,11 +4087,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4036,8 +4106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15544800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="15551280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4054,11 +4124,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4073,8 +4143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15727680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="15734160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4091,11 +4161,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4110,8 +4180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15910560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="15917040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4128,11 +4198,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4147,8 +4217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16093440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="16099920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4165,11 +4235,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4184,8 +4254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16276320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="16282800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4202,11 +4272,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4221,8 +4291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16459200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="16465680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4239,11 +4309,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4258,8 +4328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16642080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="16648560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4276,11 +4346,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4295,8 +4365,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16824960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="16831440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4313,11 +4383,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4332,8 +4402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17007840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="17014320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4350,11 +4420,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4369,8 +4439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17190720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="17197200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4387,11 +4457,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4406,8 +4476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17373600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="17380080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4424,11 +4494,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4443,8 +4513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17556480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="17562960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4461,11 +4531,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4480,8 +4550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17739360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="17745840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4498,11 +4568,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4517,8 +4587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17922240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="17928720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4535,11 +4605,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4554,8 +4624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18105120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="18111600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4572,11 +4642,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4591,8 +4661,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18288000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="18294480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4609,11 +4679,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4628,8 +4698,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18470880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="18477360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4646,11 +4716,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4665,8 +4735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18653760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="18660240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4683,11 +4753,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4702,8 +4772,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18836640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="18843120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4720,11 +4790,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4739,8 +4809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19019520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="19026000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4757,11 +4827,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4776,8 +4846,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19202400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="19208880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4794,11 +4864,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4813,8 +4883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19385280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="19391760"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4831,11 +4901,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4850,8 +4920,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19568160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="19574640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4868,11 +4938,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4887,8 +4957,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19751040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="19757520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4905,11 +4975,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4924,8 +4994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19933920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="19940400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4942,11 +5012,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4961,8 +5031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20116800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="20123280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4979,11 +5049,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -4998,8 +5068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20299680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="20306160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5016,11 +5086,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5035,8 +5105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20482560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="20489040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5053,11 +5123,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5072,8 +5142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20665440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="20671920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5090,11 +5160,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5109,8 +5179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20848320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="20854800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5127,11 +5197,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5146,8 +5216,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21031200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="21037680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5164,11 +5234,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5183,8 +5253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21214080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="21220560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5201,11 +5271,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5220,8 +5290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21396960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="21403440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5238,11 +5308,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5257,8 +5327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21579840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="21586320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5275,11 +5345,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5294,8 +5364,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21762720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="21769200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5312,11 +5382,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5331,8 +5401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21945600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="21952080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5349,11 +5419,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5368,8 +5438,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22128480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="22134960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5386,11 +5456,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5405,8 +5475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22311360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="22317840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5423,11 +5493,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5442,8 +5512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22494240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="22500720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5460,11 +5530,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5479,8 +5549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22677120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="22683600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5497,11 +5567,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5516,8 +5586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22860000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="22866480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5534,11 +5604,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5553,8 +5623,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23042880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="23049360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5571,11 +5641,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5590,8 +5660,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23225760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="23232240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5608,11 +5678,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>128</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5627,8 +5697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23408640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="23415120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5645,11 +5715,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5664,8 +5734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23591520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="23598000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5682,11 +5752,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5701,8 +5771,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23774400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="23780880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5719,11 +5789,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5738,8 +5808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23957280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="23963760"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5756,11 +5826,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5775,8 +5845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24140160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="24146640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5793,11 +5863,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5812,8 +5882,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24323040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="24329520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5830,11 +5900,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5849,8 +5919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24505920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="24512400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5867,11 +5937,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5886,8 +5956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24688800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="24695280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5904,11 +5974,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5923,8 +5993,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24871680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="24878160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5941,11 +6011,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5960,8 +6030,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25054560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="25061040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5978,11 +6048,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -5997,8 +6067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25237440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="25243920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6015,11 +6085,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6034,8 +6104,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25420320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="25426800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6052,11 +6122,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6071,8 +6141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25603200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="25609680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6089,11 +6159,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6108,8 +6178,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25786080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="25792560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6126,11 +6196,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6145,8 +6215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25968960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="25975440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6163,11 +6233,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6182,8 +6252,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26151840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="26158320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6200,11 +6270,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>144</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6219,8 +6289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26334720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="26341200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6237,11 +6307,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6256,8 +6326,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26517600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="26524080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6274,11 +6344,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>146</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6293,8 +6363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26700480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="26706960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6311,11 +6381,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6330,8 +6400,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26883360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="26889840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6348,11 +6418,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6367,8 +6437,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27066240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="27072720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6385,11 +6455,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6404,8 +6474,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27249120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="27255600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6422,11 +6492,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>150</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6441,8 +6511,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27432000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="27438480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6459,11 +6529,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6478,8 +6548,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27614880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="27621360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6496,11 +6566,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6515,8 +6585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27797760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="27804240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6533,11 +6603,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6552,8 +6622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27980640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="27987120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6570,11 +6640,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>154</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6589,8 +6659,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28163520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="28170000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6607,11 +6677,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6626,8 +6696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28346400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="28352880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6644,11 +6714,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6663,8 +6733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28529280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="28535760"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6681,11 +6751,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6700,8 +6770,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28712160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="28718640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6718,11 +6788,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6737,8 +6807,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28895040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="28901520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6755,11 +6825,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6774,8 +6844,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29077920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="29084400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6792,11 +6862,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6811,8 +6881,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29260800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="29267280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6829,11 +6899,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6848,8 +6918,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29443680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="29450160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6866,11 +6936,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6885,8 +6955,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29626560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="29633040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6903,11 +6973,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>163</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6922,8 +6992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29809440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="29815920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6940,11 +7010,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6959,8 +7029,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29992320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="29998800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6977,11 +7047,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -6996,8 +7066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30175200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="30181680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7014,11 +7084,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>166</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7033,8 +7103,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30358080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="30364560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7051,11 +7121,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7070,8 +7140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30540960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="30547440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7088,11 +7158,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7107,8 +7177,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30723840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="30730320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7125,11 +7195,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7144,8 +7214,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30906720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="30913200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7162,11 +7232,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>170</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7181,8 +7251,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31089600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="31096080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7199,11 +7269,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>171</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7218,8 +7288,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31272480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="31278960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7236,11 +7306,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7255,8 +7325,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31455360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="31461840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7273,11 +7343,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>173</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7292,8 +7362,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31638240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="31644720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7310,11 +7380,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7329,8 +7399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31821120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="31827600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7347,11 +7417,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7366,8 +7436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="32004000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="32010480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7384,11 +7454,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>176</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7403,8 +7473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="32186880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="32193360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7421,11 +7491,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7440,8 +7510,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="32369760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="32376240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7458,11 +7528,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>178</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7477,8 +7547,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="32552640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="32559120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7495,11 +7565,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>179</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7514,8 +7584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="32735520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="32742000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7532,11 +7602,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7551,8 +7621,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="32918400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="32924880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7569,11 +7639,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>181</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7588,8 +7658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="33101280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="33107760"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7606,11 +7676,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7625,8 +7695,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="33284160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="33290640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7643,11 +7713,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7662,8 +7732,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="33467040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="33473520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7680,11 +7750,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7699,8 +7769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="33649920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="33656400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7717,11 +7787,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7736,8 +7806,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="33832800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="33839280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7754,11 +7824,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7773,8 +7843,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34015680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="34022160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7791,11 +7861,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7810,8 +7880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34198560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="34205040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7828,11 +7898,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>188</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7847,8 +7917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34381440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="34387920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7865,11 +7935,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>189</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7884,8 +7954,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34564320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="34570800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7902,11 +7972,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>190</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7921,8 +7991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34747200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="34753680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7939,11 +8009,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7958,8 +8028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34930080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="34936560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7976,11 +8046,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>192</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -7995,8 +8065,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35112960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="35119440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8013,11 +8083,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>193</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8032,8 +8102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35295840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="35302320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8050,11 +8120,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8069,8 +8139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35478720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="35485200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8087,11 +8157,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>195</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8106,8 +8176,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35661600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="35668080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8124,11 +8194,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>196</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8143,8 +8213,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35844480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="35850960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8161,11 +8231,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>197</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8180,8 +8250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36027360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="36033840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8198,11 +8268,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8217,8 +8287,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36210240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="36216720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8235,11 +8305,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>199</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8254,8 +8324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36393120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="36399600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8272,11 +8342,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8291,8 +8361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36576000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="36582480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8309,11 +8379,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>201</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8328,8 +8398,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36758880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="36765360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8346,11 +8416,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>202</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8365,8 +8435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36941760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="36948240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8383,11 +8453,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>203</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8402,8 +8472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37124640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="37131120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8420,11 +8490,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>204</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8439,8 +8509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37307520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="37314000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8457,11 +8527,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>205</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8476,8 +8546,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37490400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="37496880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8494,11 +8564,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>206</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8513,8 +8583,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37673280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="37679760"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8531,11 +8601,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>207</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8550,8 +8620,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37856160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="37862640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8568,11 +8638,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>208</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8587,8 +8657,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="38039040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="38045520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8605,11 +8675,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>209</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8624,8 +8694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="38221920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="38228400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8642,11 +8712,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>210</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8661,8 +8731,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="38404800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="38411280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8679,11 +8749,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>211</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8698,8 +8768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="38587680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="38594160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8716,11 +8786,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>212</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8735,8 +8805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="38770560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="38777040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8753,11 +8823,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>213</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8772,8 +8842,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="38953440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="38959920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8790,11 +8860,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>214</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8809,8 +8879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39136320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="39142800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8827,11 +8897,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>215</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8846,8 +8916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39319200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="39325680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8864,11 +8934,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8883,8 +8953,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39502080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="39508560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8901,11 +8971,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>217</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8920,8 +8990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39684960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="39691440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8938,11 +9008,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>218</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8957,8 +9027,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39867840"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="39874320"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8975,11 +9045,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>219</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -8994,8 +9064,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="40050720"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="40057200"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9012,11 +9082,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>220</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9031,8 +9101,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="40233600"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="40240080"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9049,11 +9119,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>221</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9068,8 +9138,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="40416480"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="40422960"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9086,11 +9156,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>222</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9105,8 +9175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="40599360"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="40605840"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9123,11 +9193,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>223</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9142,8 +9212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="40782240"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="40788720"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9160,11 +9230,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>224</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9179,8 +9249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="40965120"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="40971600"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9197,11 +9267,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>224</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>225</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9216,8 +9286,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="41148000"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="41154480"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9234,11 +9304,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>226</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9253,8 +9323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="41330880"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="41337360"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9271,11 +9341,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>227</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9290,8 +9360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="41513760"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="41520240"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9308,11 +9378,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>228</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9327,8 +9397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="41696640"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="41703120"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9345,11 +9415,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>229</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9364,8 +9434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="41879520"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="41886000"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9382,11 +9452,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9401,8 +9471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="42062400"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="42068880"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9419,11 +9489,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>231</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9438,8 +9508,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="42245280"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="42251760"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9456,11 +9526,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9475,8 +9545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="42428160"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="42434640"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9493,11 +9563,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>233</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9512,8 +9582,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="42611040"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="42617520"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9530,11 +9600,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>234</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9549,8 +9619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="42793920"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="42800400"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9567,11 +9637,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>235</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9586,8 +9656,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="42976800"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="42983280"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9604,11 +9674,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>236</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9623,8 +9693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="43159680"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="43166160"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9641,11 +9711,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>237</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9660,8 +9730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="43342560"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="43349040"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9678,11 +9748,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>238</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9697,8 +9767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="43525440"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="43531920"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9715,11 +9785,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>239</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9734,8 +9804,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="43708320"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="43714800"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9752,11 +9822,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>240</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9771,8 +9841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="43891200"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="43897680"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9789,11 +9859,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>241</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9808,8 +9878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="44074080"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="44080560"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9826,11 +9896,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>241</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>242</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -9845,8 +9915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="44256960"/>
-          <a:ext cx="151920" cy="151920"/>
+          <a:off x="0" y="44263440"/>
+          <a:ext cx="151560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9866,15 +9936,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39:C57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10224,7 +10295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -10234,10 +10305,13 @@
       <c r="C38" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="D38" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
@@ -10245,10 +10319,13 @@
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D39" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
@@ -10256,10 +10333,13 @@
       <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D40" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>42</v>
@@ -10267,10 +10347,13 @@
       <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D41" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>42</v>
@@ -10278,10 +10361,13 @@
       <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D42" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -10289,10 +10375,13 @@
       <c r="C43" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D43" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -10300,10 +10389,13 @@
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D44" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>42</v>
@@ -10311,10 +10403,13 @@
       <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D45" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>42</v>
@@ -10322,10 +10417,13 @@
       <c r="C46" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D46" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>42</v>
@@ -10333,10 +10431,13 @@
       <c r="C47" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D47" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>42</v>
@@ -10344,10 +10445,13 @@
       <c r="C48" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D48" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
@@ -10355,10 +10459,13 @@
       <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D49" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>42</v>
@@ -10366,10 +10473,13 @@
       <c r="C50" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D50" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>42</v>
@@ -10377,10 +10487,13 @@
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D51" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
@@ -10388,10 +10501,13 @@
       <c r="C52" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D52" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
@@ -10399,10 +10515,13 @@
       <c r="C53" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D53" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>42</v>
@@ -10410,10 +10529,13 @@
       <c r="C54" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D54" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>42</v>
@@ -10421,10 +10543,13 @@
       <c r="C55" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D55" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>42</v>
@@ -10432,10 +10557,13 @@
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D56" s="0" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
@@ -10443,865 +10571,868 @@
       <c r="C57" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D57" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>14</v>
@@ -11312,72 +11443,72 @@
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779B5F0-FBDB-492A-A1DC-0984127EDF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4120A1-7C3B-4528-B25B-DCF960279C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="254">
   <si>
     <t>project name</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>can't import</t>
   </si>
 </sst>
 </file>
@@ -11587,14 +11590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -11811,7 +11814,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -11822,7 +11825,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -11899,7 +11902,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -11965,7 +11968,7 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -12225,113 +12228,239 @@
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4120A1-7C3B-4528-B25B-DCF960279C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212977F6-CA45-4A07-B0E5-19DC3D23C7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="275">
   <si>
     <t>project name</t>
   </si>
@@ -787,6 +787,69 @@
   </si>
   <si>
     <t>can't import</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>commons-vfs</t>
+  </si>
+  <si>
+    <t>commons-weaver</t>
+  </si>
+  <si>
+    <t>ant-antlibs-compress</t>
+  </si>
+  <si>
+    <t>continuum</t>
+  </si>
+  <si>
+    <t>cordova</t>
+  </si>
+  <si>
+    <t>crunch</t>
+  </si>
+  <si>
+    <t>ctakes</t>
+  </si>
+  <si>
+    <t>curator</t>
+  </si>
+  <si>
+    <t>cxf</t>
+  </si>
+  <si>
+    <t>daffodil</t>
+  </si>
+  <si>
+    <t>datafu</t>
+  </si>
+  <si>
+    <t>deltaspike</t>
+  </si>
+  <si>
+    <t>derby</t>
+  </si>
+  <si>
+    <t>directmemory</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>ecs</t>
+  </si>
+  <si>
+    <t>devicemap-browsermap</t>
+  </si>
+  <si>
+    <t>directory-server</t>
+  </si>
+  <si>
+    <t>directory-studio</t>
+  </si>
+  <si>
+    <t>directory-ldap-api</t>
   </si>
 </sst>
 </file>
@@ -11588,19 +11651,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11611,7 +11674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11622,7 +11685,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11633,7 +11696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11644,7 +11707,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11655,7 +11718,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11666,7 +11729,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11677,7 +11740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11688,7 +11751,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11696,7 +11759,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11707,7 +11770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11718,7 +11781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11729,7 +11792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11740,7 +11803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11751,7 +11814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11762,7 +11825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11773,7 +11836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11784,7 +11847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11795,7 +11858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11806,7 +11869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11817,7 +11880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11828,7 +11891,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11839,7 +11902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -11850,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -11861,7 +11924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -11872,7 +11935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -11883,7 +11946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -11894,7 +11957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -11905,7 +11968,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -11916,7 +11979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -11927,7 +11990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -11938,7 +12001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -11949,7 +12012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -11960,7 +12023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -11971,7 +12034,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -11982,7 +12045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -11993,7 +12056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12004,7 +12067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12012,219 +12075,219 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -12235,7 +12298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -12246,7 +12309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -12257,7 +12320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -12268,7 +12331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -12279,7 +12342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -12290,7 +12353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -12301,7 +12364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -12312,7 +12375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -12323,7 +12386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -12334,7 +12397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -12345,7 +12408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -12356,7 +12419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -12367,7 +12430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -12378,7 +12441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -12389,7 +12452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -12400,7 +12463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -12411,7 +12474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -12422,7 +12485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -12433,7 +12496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -12444,7 +12507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -12455,582 +12518,762 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>199</v>
       </c>
@@ -13041,12 +13284,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>201</v>
       </c>
@@ -13057,7 +13300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>202</v>
       </c>
@@ -13068,7 +13311,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>203</v>
       </c>
@@ -13079,7 +13322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>204</v>
       </c>
@@ -13090,7 +13333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>205</v>
       </c>
@@ -13101,7 +13344,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>206</v>
       </c>
@@ -13112,7 +13355,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>207</v>
       </c>
@@ -13123,7 +13366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>208</v>
       </c>
@@ -13134,7 +13377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>209</v>
       </c>
@@ -13145,7 +13388,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>210</v>
       </c>
@@ -13156,7 +13399,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>211</v>
       </c>
@@ -13167,7 +13410,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>212</v>
       </c>
@@ -13178,7 +13421,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>213</v>
       </c>
@@ -13189,7 +13432,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>214</v>
       </c>
@@ -13200,7 +13443,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>215</v>
       </c>
@@ -13211,7 +13454,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>216</v>
       </c>
@@ -13222,7 +13465,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>217</v>
       </c>
@@ -13233,7 +13476,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>218</v>
       </c>
@@ -13244,7 +13487,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>219</v>
       </c>
@@ -13255,7 +13498,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>220</v>
       </c>
@@ -13266,7 +13509,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>221</v>
       </c>
@@ -13277,7 +13520,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>222</v>
       </c>
@@ -13288,7 +13531,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>223</v>
       </c>
@@ -13296,7 +13539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>224</v>
       </c>
@@ -13307,7 +13550,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>225</v>
       </c>
@@ -13318,7 +13561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>226</v>
       </c>
@@ -13329,7 +13572,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>227</v>
       </c>
@@ -13340,7 +13583,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>228</v>
       </c>
@@ -13348,12 +13591,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>230</v>
       </c>
@@ -13364,7 +13607,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>231</v>
       </c>
@@ -13375,7 +13618,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>232</v>
       </c>
@@ -13386,7 +13629,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>233</v>
       </c>
@@ -13397,7 +13640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>234</v>
       </c>
@@ -13408,7 +13651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>235</v>
       </c>
@@ -13419,7 +13662,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>236</v>
       </c>
@@ -13430,12 +13673,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>238</v>
       </c>
@@ -13443,7 +13686,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>239</v>
       </c>
@@ -13454,7 +13697,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>240</v>
       </c>
@@ -13465,22 +13708,22 @@
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>244</v>
       </c>
@@ -13491,7 +13734,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>245</v>
       </c>
@@ -13502,12 +13745,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>247</v>
       </c>
@@ -13518,7 +13761,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>248</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4120A1-7C3B-4528-B25B-DCF960279C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07229BBA-FDD7-4421-82B0-F6B33B1EE113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="255">
   <si>
     <t>project name</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>can't import</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -11591,7 +11594,7 @@
   <dimension ref="A1:C243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12232,7 +12235,7 @@
         <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -12243,7 +12246,7 @@
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -12254,7 +12257,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -12265,7 +12268,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -12276,7 +12279,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -12287,7 +12290,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -12298,7 +12301,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -12309,7 +12312,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -12320,7 +12323,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -12331,7 +12334,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -12342,7 +12345,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -12353,7 +12356,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -12364,7 +12367,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -12375,7 +12378,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -12386,7 +12389,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -12397,7 +12400,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -12408,7 +12411,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -12419,7 +12422,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -12430,7 +12433,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -12441,7 +12444,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -12452,7 +12455,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212977F6-CA45-4A07-B0E5-19DC3D23C7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF506E-9CC1-4350-8E21-58CA981C0CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11653,17 +11653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -12295,10 +12295,10 @@
         <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -12306,10 +12306,10 @@
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -12317,10 +12317,10 @@
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -12328,10 +12328,10 @@
         <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -12339,10 +12339,10 @@
         <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -12350,10 +12350,10 @@
         <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -12361,10 +12361,10 @@
         <v>14</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -12372,10 +12372,10 @@
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -12383,10 +12383,10 @@
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -12394,10 +12394,10 @@
         <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -12405,10 +12405,10 @@
         <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -12416,10 +12416,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -12427,10 +12427,10 @@
         <v>14</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -12438,10 +12438,10 @@
         <v>14</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -12449,10 +12449,10 @@
         <v>14</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -12460,10 +12460,10 @@
         <v>14</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -12471,10 +12471,10 @@
         <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -12482,10 +12482,10 @@
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -12493,10 +12493,10 @@
         <v>14</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -12504,10 +12504,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -12515,10 +12515,10 @@
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -12798,482 +12798,482 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>199</v>
       </c>
@@ -13284,12 +13284,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>201</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>202</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>203</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>204</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>205</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>206</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>207</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>208</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>209</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>210</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>211</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>212</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>213</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>214</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>215</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>216</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>217</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>218</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>219</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>220</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>221</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>222</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>223</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>224</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>225</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>226</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>227</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>228</v>
       </c>
@@ -13591,12 +13591,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>230</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>231</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>232</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>233</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>234</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>236</v>
       </c>
@@ -13673,12 +13673,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>238</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>239</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>240</v>
       </c>
@@ -13708,22 +13708,22 @@
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>244</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>245</v>
       </c>
@@ -13745,12 +13745,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>247</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>248</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF506E-9CC1-4350-8E21-58CA981C0CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA0A2F-DF34-4DB3-9D77-241BD3D8D00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
   <si>
     <t>project name</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Xiao</t>
   </si>
   <si>
-    <t>IN PROGRESS</t>
-  </si>
-  <si>
     <t> Apache Commons BSF</t>
   </si>
   <si>
@@ -850,6 +847,12 @@
   </si>
   <si>
     <t>directory-ldap-api</t>
+  </si>
+  <si>
+    <t>Import Failure</t>
+  </si>
+  <si>
+    <t>NO TEST</t>
   </si>
 </sst>
 </file>
@@ -11653,17 +11656,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11674,114 +11677,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
         <v>249</v>
       </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
         <v>249</v>
       </c>
-      <c r="C3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
         <v>249</v>
       </c>
-      <c r="C4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
         <v>249</v>
       </c>
-      <c r="C5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
         <v>249</v>
       </c>
-      <c r="C6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
         <v>249</v>
       </c>
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" t="s">
         <v>249</v>
       </c>
-      <c r="C10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
         <v>249</v>
       </c>
-      <c r="C11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11792,7 +11795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11803,7 +11806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11825,7 +11828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11836,7 +11839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11847,7 +11850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11858,7 +11861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11869,7 +11872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11877,10 +11880,10 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11888,10 +11891,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11902,7 +11905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -11913,7 +11916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -11935,7 +11938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -11957,7 +11960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -11965,10 +11968,10 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12001,7 +12004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12012,7 +12015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12023,7 +12026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12031,10 +12034,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12045,7 +12048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12056,7 +12059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12067,7 +12070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12075,1574 +12078,1574 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>43</v>
+      <c r="C81" t="s">
+        <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>43</v>
+      <c r="C82" t="s">
+        <v>274</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>43</v>
+      <c r="C83" t="s">
+        <v>275</v>
       </c>
       <c r="D83" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>43</v>
+      <c r="C88" t="s">
+        <v>274</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>43</v>
+      <c r="C89" t="s">
+        <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>43</v>
+      <c r="C92" t="s">
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D93" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D94" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>43</v>
+      <c r="C98" t="s">
+        <v>250</v>
       </c>
       <c r="D98" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="B194" t="s">
+        <v>248</v>
+      </c>
+      <c r="C194" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B194" t="s">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="s">
+        <v>248</v>
+      </c>
+      <c r="C196" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" t="s">
+        <v>248</v>
+      </c>
+      <c r="C197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" t="s">
+        <v>248</v>
+      </c>
+      <c r="C198" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" t="s">
+        <v>248</v>
+      </c>
+      <c r="C199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" t="s">
+        <v>248</v>
+      </c>
+      <c r="C200" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" t="s">
+        <v>248</v>
+      </c>
+      <c r="C201" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>248</v>
+      </c>
+      <c r="C202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" t="s">
+        <v>248</v>
+      </c>
+      <c r="C203" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" t="s">
+        <v>248</v>
+      </c>
+      <c r="C204" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205" t="s">
         <v>249</v>
       </c>
-      <c r="C194" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B196" t="s">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" t="s">
+        <v>248</v>
+      </c>
+      <c r="C206" t="s">
         <v>249</v>
       </c>
-      <c r="C196" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B197" t="s">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" t="s">
+        <v>248</v>
+      </c>
+      <c r="C207" t="s">
         <v>249</v>
       </c>
-      <c r="C197" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B198" t="s">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" t="s">
+        <v>248</v>
+      </c>
+      <c r="C208" t="s">
         <v>249</v>
       </c>
-      <c r="C198" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B199" t="s">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" t="s">
+        <v>248</v>
+      </c>
+      <c r="C209" t="s">
         <v>249</v>
       </c>
-      <c r="C199" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B200" t="s">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" t="s">
+        <v>248</v>
+      </c>
+      <c r="C210" t="s">
         <v>249</v>
       </c>
-      <c r="C200" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B201" t="s">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" t="s">
+        <v>248</v>
+      </c>
+      <c r="C211" t="s">
         <v>249</v>
       </c>
-      <c r="C201" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B202" t="s">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" t="s">
+        <v>248</v>
+      </c>
+      <c r="C212" t="s">
         <v>249</v>
       </c>
-      <c r="C202" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B203" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" t="s">
+        <v>248</v>
+      </c>
+      <c r="C213" t="s">
         <v>249</v>
       </c>
-      <c r="C203" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B204" t="s">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" t="s">
+        <v>248</v>
+      </c>
+      <c r="C214" t="s">
         <v>249</v>
       </c>
-      <c r="C204" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B205" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" t="s">
+        <v>248</v>
+      </c>
+      <c r="C215" t="s">
         <v>249</v>
       </c>
-      <c r="C205" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" t="s">
+        <v>248</v>
+      </c>
+      <c r="C216" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" t="s">
+        <v>248</v>
+      </c>
+      <c r="C217" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C218" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B206" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" t="s">
+        <v>248</v>
+      </c>
+      <c r="C219" t="s">
         <v>249</v>
       </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" t="s">
+        <v>248</v>
+      </c>
+      <c r="C220" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" t="s">
+        <v>248</v>
+      </c>
+      <c r="C221" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" t="s">
+        <v>248</v>
+      </c>
+      <c r="C222" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B207" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" t="s">
+        <v>248</v>
+      </c>
+      <c r="C225" t="s">
         <v>249</v>
       </c>
-      <c r="C207" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B208" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" t="s">
+        <v>248</v>
+      </c>
+      <c r="C226" t="s">
         <v>249</v>
       </c>
-      <c r="C208" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B209" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" t="s">
+        <v>248</v>
+      </c>
+      <c r="C227" t="s">
         <v>249</v>
       </c>
-      <c r="C209" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B210" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" t="s">
+        <v>248</v>
+      </c>
+      <c r="C228" t="s">
         <v>249</v>
       </c>
-      <c r="C210" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B211" t="s">
-        <v>249</v>
-      </c>
-      <c r="C211" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B212" t="s">
-        <v>249</v>
-      </c>
-      <c r="C212" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B213" t="s">
-        <v>249</v>
-      </c>
-      <c r="C213" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B214" t="s">
-        <v>249</v>
-      </c>
-      <c r="C214" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B215" t="s">
-        <v>249</v>
-      </c>
-      <c r="C215" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B216" t="s">
-        <v>249</v>
-      </c>
-      <c r="C216" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B217" t="s">
-        <v>249</v>
-      </c>
-      <c r="C217" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C218" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B219" t="s">
-        <v>249</v>
-      </c>
-      <c r="C219" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B220" t="s">
-        <v>249</v>
-      </c>
-      <c r="C220" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B221" t="s">
-        <v>249</v>
-      </c>
-      <c r="C221" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B222" t="s">
-        <v>249</v>
-      </c>
-      <c r="C222" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C223" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B225" t="s">
-        <v>249</v>
-      </c>
-      <c r="C225" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B226" t="s">
-        <v>249</v>
-      </c>
-      <c r="C226" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B227" t="s">
-        <v>249</v>
-      </c>
-      <c r="C227" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B228" t="s">
-        <v>249</v>
-      </c>
-      <c r="C228" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
@@ -13651,125 +13654,125 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" t="s">
+        <v>248</v>
+      </c>
+      <c r="C230" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
+        <v>248</v>
+      </c>
+      <c r="C231" t="s">
         <v>249</v>
       </c>
-      <c r="C230" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B231" t="s">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" t="s">
+        <v>248</v>
+      </c>
+      <c r="C234" t="s">
         <v>249</v>
       </c>
-      <c r="C231" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B233" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" t="s">
+        <v>248</v>
+      </c>
+      <c r="C235" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B234" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" t="s">
+        <v>248</v>
+      </c>
+      <c r="C239" t="s">
         <v>249</v>
       </c>
-      <c r="C234" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B235" t="s">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" t="s">
+        <v>248</v>
+      </c>
+      <c r="C240" t="s">
         <v>249</v>
       </c>
-      <c r="C235" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B239" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" t="s">
+        <v>248</v>
+      </c>
+      <c r="C242" t="s">
         <v>249</v>
       </c>
-      <c r="C239" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B240" t="s">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+      <c r="C243" t="s">
         <v>249</v>
-      </c>
-      <c r="C240" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242" t="s">
-        <v>249</v>
-      </c>
-      <c r="C242" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B243" t="s">
-        <v>249</v>
-      </c>
-      <c r="C243" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA0A2F-DF34-4DB3-9D77-241BD3D8D00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24E24A-7671-4135-B4F9-B19C648FE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="275">
   <si>
     <t>project name</t>
   </si>
@@ -778,9 +778,6 @@
   </si>
   <si>
     <t>No Git Repo</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>can't import</t>
@@ -11656,17 +11653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11677,7 +11674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11688,7 +11685,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11699,7 +11696,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11710,7 +11707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11721,7 +11718,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11732,7 +11729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11743,7 +11740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11754,7 +11751,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11762,7 +11759,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11773,7 +11770,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11784,7 +11781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11795,7 +11792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11806,7 +11803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11817,7 +11814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11828,7 +11825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11839,7 +11836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11850,7 +11847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11861,7 +11858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11872,7 +11869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11883,7 +11880,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11891,10 +11888,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11905,7 +11902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -11916,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -11927,7 +11924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -11938,7 +11935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -11949,7 +11946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -11960,7 +11957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -11968,10 +11965,10 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -11982,7 +11979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -11993,7 +11990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12004,7 +12001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12015,7 +12012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12026,7 +12023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12034,10 +12031,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12048,7 +12045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12059,7 +12056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12070,7 +12067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12078,10 +12075,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -12089,10 +12086,10 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -12100,10 +12097,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -12111,10 +12108,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -12122,10 +12119,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -12133,10 +12130,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -12144,10 +12141,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -12155,10 +12152,10 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -12166,10 +12163,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -12177,10 +12174,10 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -12188,10 +12185,10 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -12199,10 +12196,10 @@
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -12210,10 +12207,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -12221,10 +12218,10 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -12232,10 +12229,10 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -12243,10 +12240,10 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -12254,10 +12251,10 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -12265,10 +12262,10 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -12276,10 +12273,10 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -12287,10 +12284,10 @@
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -12298,10 +12295,10 @@
         <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -12309,10 +12306,10 @@
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -12320,10 +12317,10 @@
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -12331,10 +12328,10 @@
         <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -12342,10 +12339,10 @@
         <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -12353,10 +12350,10 @@
         <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -12364,10 +12361,10 @@
         <v>14</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -12375,10 +12372,10 @@
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -12386,10 +12383,10 @@
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -12397,10 +12394,10 @@
         <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -12408,10 +12405,10 @@
         <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -12419,10 +12416,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -12430,10 +12427,10 @@
         <v>14</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -12441,10 +12438,10 @@
         <v>14</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -12452,10 +12449,10 @@
         <v>14</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -12463,10 +12460,10 @@
         <v>14</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -12474,10 +12471,10 @@
         <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -12485,10 +12482,10 @@
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -12496,10 +12493,10 @@
         <v>14</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -12507,10 +12504,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -12518,10 +12515,10 @@
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -12529,13 +12526,13 @@
         <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" t="s">
         <v>253</v>
       </c>
-      <c r="D79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -12543,13 +12540,13 @@
         <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -12557,13 +12554,13 @@
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -12571,13 +12568,13 @@
         <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -12585,13 +12582,13 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -12599,13 +12596,13 @@
         <v>42</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -12613,13 +12610,13 @@
         <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -12627,13 +12624,13 @@
         <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -12641,13 +12638,13 @@
         <v>42</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -12655,13 +12652,13 @@
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -12669,13 +12666,13 @@
         <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -12683,13 +12680,13 @@
         <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -12697,13 +12694,13 @@
         <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -12711,13 +12708,13 @@
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -12725,13 +12722,13 @@
         <v>42</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -12739,13 +12736,13 @@
         <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D94" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -12753,13 +12750,13 @@
         <v>42</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -12767,13 +12764,13 @@
         <v>42</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -12781,13 +12778,13 @@
         <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -12798,485 +12795,545 @@
         <v>250</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>248</v>
+      </c>
+      <c r="C181" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>248</v>
+      </c>
+      <c r="C183" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>248</v>
+      </c>
+      <c r="C185" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>248</v>
+      </c>
+      <c r="C186" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>248</v>
+      </c>
+      <c r="C187" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>248</v>
+      </c>
+      <c r="C188" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>248</v>
+      </c>
+      <c r="C190" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>248</v>
+      </c>
+      <c r="C192" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>248</v>
+      </c>
+      <c r="C193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -13284,15 +13341,15 @@
         <v>248</v>
       </c>
       <c r="C194" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -13300,10 +13357,10 @@
         <v>248</v>
       </c>
       <c r="C196" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -13311,10 +13368,10 @@
         <v>248</v>
       </c>
       <c r="C197" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -13322,10 +13379,10 @@
         <v>248</v>
       </c>
       <c r="C198" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -13333,10 +13390,10 @@
         <v>248</v>
       </c>
       <c r="C199" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -13344,10 +13401,10 @@
         <v>248</v>
       </c>
       <c r="C200" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -13355,10 +13412,10 @@
         <v>248</v>
       </c>
       <c r="C201" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -13366,10 +13423,10 @@
         <v>248</v>
       </c>
       <c r="C202" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -13377,10 +13434,10 @@
         <v>248</v>
       </c>
       <c r="C203" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -13388,10 +13445,10 @@
         <v>248</v>
       </c>
       <c r="C204" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -13402,7 +13459,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -13413,7 +13470,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -13424,7 +13481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -13435,7 +13492,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -13446,7 +13503,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -13457,7 +13514,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -13468,7 +13525,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -13479,7 +13536,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -13490,7 +13547,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -13501,7 +13558,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -13512,7 +13569,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -13523,7 +13580,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -13534,7 +13591,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -13542,7 +13599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -13553,7 +13610,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -13564,7 +13621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -13575,7 +13632,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -13586,7 +13643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -13594,12 +13651,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -13610,7 +13667,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -13621,7 +13678,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -13632,7 +13689,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -13643,7 +13700,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -13654,7 +13711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -13665,7 +13722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -13676,12 +13733,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -13689,7 +13746,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -13700,7 +13757,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -13711,22 +13768,22 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -13737,7 +13794,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -13748,12 +13805,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -13764,7 +13821,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24E24A-7671-4135-B4F9-B19C648FE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF90A9EE-DF5A-46E8-8EFD-1F779DC60E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="276">
   <si>
     <t>project name</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>NO TEST</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -11653,8 +11656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12802,148 +12805,268 @@
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="B101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="B107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="B108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="B109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="B110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24E24A-7671-4135-B4F9-B19C648FE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9EE487-DEA8-49DD-A6F2-D5EC1CB7D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="276">
   <si>
     <t>project name</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>NO TEST</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -11654,7 +11657,7 @@
   <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13108,105 +13111,171 @@
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>248</v>
+      </c>
+      <c r="C169" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>248</v>
+      </c>
+      <c r="C171" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>248</v>
+      </c>
+      <c r="C173" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>248</v>
+      </c>
+      <c r="C175" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>180</v>
+      </c>
+      <c r="B176" t="s">
+        <v>248</v>
+      </c>
+      <c r="C176" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="B177" t="s">
+        <v>248</v>
+      </c>
+      <c r="C177" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="B178" t="s">
+        <v>248</v>
+      </c>
+      <c r="C178" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="C179" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="B180" t="s">
+        <v>248</v>
+      </c>
+      <c r="C180" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
@@ -13245,6 +13314,9 @@
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="C184" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
@@ -13294,6 +13366,9 @@
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="C189" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
@@ -13310,6 +13385,9 @@
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="C191" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
@@ -13348,6 +13426,9 @@
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C195" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
@@ -13655,6 +13736,9 @@
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="C224" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -13737,6 +13821,9 @@
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="C232" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -13745,6 +13832,9 @@
       <c r="B233" t="s">
         <v>248</v>
       </c>
+      <c r="C233" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
@@ -13772,15 +13862,24 @@
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="C236" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="C237" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="C238" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF90A9EE-DF5A-46E8-8EFD-1F779DC60E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52DB3DA-669D-4974-A021-201683EA0B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="283">
   <si>
     <t>project name</t>
   </si>
@@ -853,6 +853,27 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>no git repo, project status: retired</t>
+  </si>
+  <si>
+    <t>no gir repo</t>
+  </si>
+  <si>
+    <t>becomes tons of sub projects, save for later</t>
+  </si>
+  <si>
+    <t>has 4 sub projects</t>
+  </si>
+  <si>
+    <t>Cannot find any mock import from GetInfo.java though there are files with imports according to AllMetrics.csv, and the files actually exists, perhaps because of gradle build</t>
+  </si>
+  <si>
+    <t>build failed</t>
+  </si>
+  <si>
+    <t>This one is a gradle but succeed</t>
   </si>
 </sst>
 </file>
@@ -876,12 +897,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -897,12 +924,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11656,14 +11688,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -12833,6 +12866,9 @@
       <c r="C101" t="s">
         <v>275</v>
       </c>
+      <c r="D101" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
@@ -12845,15 +12881,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C103" t="s">
-        <v>275</v>
+      <c r="C103" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -12943,6 +12982,9 @@
       <c r="C111" t="s">
         <v>275</v>
       </c>
+      <c r="D111" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -12954,8 +12996,11 @@
       <c r="C112" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -12966,7 +13011,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -12976,8 +13021,11 @@
       <c r="C114" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -12987,8 +13035,11 @@
       <c r="C115" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -12999,7 +13050,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -13010,7 +13061,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -13020,53 +13071,56 @@
       <c r="C118" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB18652E-4579-4BEB-B2C0-2ADD46A60AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C5E9C-B273-4873-BBE2-975465E62BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,13 +927,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11687,8 +11690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12879,8 +12882,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B103" s="3" t="s">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wchwe\ResearchCode\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9EE487-DEA8-49DD-A6F2-D5EC1CB7D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98AAE4-C47D-4139-81F6-C1CDB350FBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="279">
   <si>
     <t>project name</t>
   </si>
@@ -853,6 +853,15 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Chenhao</t>
+  </si>
+  <si>
+    <t>Git Fetch Error</t>
+  </si>
+  <si>
+    <t>Codec Issue</t>
   </si>
 </sst>
 </file>
@@ -11656,17 +11665,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.84375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11677,7 +11686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11688,7 +11697,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11699,7 +11708,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11710,7 +11719,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11721,7 +11730,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11732,7 +11741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11743,7 +11752,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11754,7 +11763,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11762,7 +11771,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11773,7 +11782,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11784,7 +11793,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11795,7 +11804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11806,7 +11815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11817,7 +11826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11828,7 +11837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11839,7 +11848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11850,7 +11859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11861,7 +11870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11872,7 +11881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11883,7 +11892,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11894,7 +11903,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11905,7 +11914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -11916,7 +11925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -11927,7 +11936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -11938,7 +11947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -11949,7 +11958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -11960,7 +11969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -11971,7 +11980,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -11982,7 +11991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -11993,7 +12002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12004,7 +12013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12015,7 +12024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12026,7 +12035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12037,7 +12046,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12048,7 +12057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12059,7 +12068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12070,7 +12079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12081,7 +12090,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -12092,7 +12101,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -12103,7 +12112,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -12114,7 +12123,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -12125,7 +12134,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -12136,7 +12145,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -12147,7 +12156,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -12158,7 +12167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -12169,7 +12178,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -12180,7 +12189,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -12191,7 +12200,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -12202,7 +12211,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -12213,7 +12222,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -12224,7 +12233,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -12235,7 +12244,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -12246,7 +12255,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -12257,7 +12266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -12268,7 +12277,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -12279,7 +12288,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -12290,7 +12299,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -12301,7 +12310,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -12312,7 +12321,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -12323,7 +12332,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -12334,7 +12343,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -12345,7 +12354,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -12356,7 +12365,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -12367,7 +12376,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -12378,7 +12387,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -12389,7 +12398,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -12400,7 +12409,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -12411,7 +12420,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -12422,7 +12431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -12433,7 +12442,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -12444,7 +12453,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -12455,7 +12464,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -12466,7 +12475,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -12477,7 +12486,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -12488,7 +12497,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -12499,7 +12508,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -12510,7 +12519,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -12521,7 +12530,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -12535,7 +12544,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -12549,7 +12558,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -12563,7 +12572,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -12577,7 +12586,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -12591,7 +12600,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -12605,7 +12614,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -12619,7 +12628,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -12633,7 +12642,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -12647,7 +12656,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -12661,7 +12670,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -12675,7 +12684,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -12689,7 +12698,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -12703,7 +12712,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -12717,7 +12726,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -12731,7 +12740,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -12745,7 +12754,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -12759,7 +12768,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -12773,7 +12782,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -12787,7 +12796,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -12801,357 +12810,483 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>276</v>
+      </c>
+      <c r="C129" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -13162,7 +13297,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -13170,7 +13305,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -13181,7 +13316,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -13192,7 +13327,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -13203,7 +13338,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -13214,7 +13349,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -13225,7 +13360,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -13236,7 +13371,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -13247,7 +13382,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -13258,7 +13393,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -13266,7 +13401,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -13277,7 +13412,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -13288,7 +13423,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -13299,7 +13434,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -13310,7 +13445,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -13318,7 +13453,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -13329,7 +13464,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -13340,7 +13475,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -13351,7 +13486,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -13362,7 +13497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -13370,7 +13505,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -13381,7 +13516,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -13389,7 +13524,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -13400,7 +13535,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -13411,7 +13546,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -13422,7 +13557,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -13430,7 +13565,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -13441,7 +13576,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -13452,7 +13587,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -13463,7 +13598,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -13474,7 +13609,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -13485,7 +13620,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -13496,7 +13631,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -13507,7 +13642,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -13518,7 +13653,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -13529,7 +13664,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -13540,7 +13675,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -13551,7 +13686,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -13562,7 +13697,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -13573,7 +13708,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -13584,7 +13719,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -13595,7 +13730,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -13606,7 +13741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -13617,7 +13752,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -13628,7 +13763,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -13639,7 +13774,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -13650,7 +13785,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -13661,7 +13796,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -13672,7 +13807,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -13680,7 +13815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -13691,7 +13826,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -13702,7 +13837,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -13713,7 +13848,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -13724,7 +13859,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -13732,7 +13867,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -13740,7 +13875,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -13751,7 +13886,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -13762,7 +13897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -13773,7 +13908,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -13784,7 +13919,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -13795,7 +13930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -13806,7 +13941,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -13817,7 +13952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -13825,7 +13960,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -13836,7 +13971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -13847,7 +13982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -13858,7 +13993,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -13866,7 +14001,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -13874,7 +14009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -13882,7 +14017,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -13893,7 +14028,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -13904,12 +14039,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -13920,7 +14055,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,27 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wchwe\ResearchCode\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98AAE4-C47D-4139-81F6-C1CDB350FBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40CEE20-10F6-4659-8AA3-A0E56BEA9FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="305">
   <si>
     <t>project name</t>
   </si>
@@ -855,13 +850,91 @@
     <t>In Progress</t>
   </si>
   <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>no git repo, project status: retired</t>
+  </si>
+  <si>
+    <t>no gir repo</t>
+  </si>
+  <si>
+    <t>becomes tons of sub projects, save for later</t>
+  </si>
+  <si>
+    <t>has 4 sub projects</t>
+  </si>
+  <si>
+    <t>Cannot find any mock import from GetInfo.java though there are files with imports according to AllMetrics.csv, and the files actually exists, perhaps because of gradle build</t>
+  </si>
+  <si>
+    <t>build failed</t>
+  </si>
+  <si>
+    <t>This one is a gradle but succeed</t>
+  </si>
+  <si>
     <t>Chenhao</t>
   </si>
   <si>
-    <t>Git Fetch Error</t>
-  </si>
-  <si>
-    <t>Codec Issue</t>
+    <t>commons-beanutils</t>
+  </si>
+  <si>
+    <t>commons-bsf</t>
+  </si>
+  <si>
+    <t>commons-chain</t>
+  </si>
+  <si>
+    <t>commons-cli</t>
+  </si>
+  <si>
+    <t>commons-codec</t>
+  </si>
+  <si>
+    <t>commons-collections</t>
+  </si>
+  <si>
+    <t>commons-compress</t>
+  </si>
+  <si>
+    <t>commons-configuration</t>
+  </si>
+  <si>
+    <t>commons-crypto</t>
+  </si>
+  <si>
+    <t>commons-csv</t>
+  </si>
+  <si>
+    <t>commons-daemon</t>
+  </si>
+  <si>
+    <t>commons-dbcp</t>
+  </si>
+  <si>
+    <t>commons-dbutils</t>
+  </si>
+  <si>
+    <t>commons-digester</t>
+  </si>
+  <si>
+    <t>commons-email</t>
+  </si>
+  <si>
+    <t>commons-exec</t>
+  </si>
+  <si>
+    <t>commons-fileupload</t>
+  </si>
+  <si>
+    <t>commons-functor</t>
+  </si>
+  <si>
+    <t>commons-geometry</t>
+  </si>
+  <si>
+    <t>httpcomponents-client</t>
   </si>
 </sst>
 </file>
@@ -885,12 +958,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -906,12 +985,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2602,7 +2686,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>141990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2645,7 +2729,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2688,7 +2772,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>138280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2731,7 +2815,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>135610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2774,7 +2858,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>124050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2860,7 +2944,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>103830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2903,7 +2987,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>99890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2946,7 +3030,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>100120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2989,7 +3073,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>97450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3032,7 +3116,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>85890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3118,7 +3202,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>65670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3161,7 +3245,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3204,7 +3288,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>61960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3247,7 +3331,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>59290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3290,7 +3374,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>48090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3376,7 +3460,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3419,7 +3503,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3462,7 +3546,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3505,7 +3589,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3548,7 +3632,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3591,7 +3675,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3634,7 +3718,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3677,7 +3761,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3720,7 +3804,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3763,7 +3847,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3806,7 +3890,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3849,7 +3933,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3892,7 +3976,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3935,7 +4019,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3978,7 +4062,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4021,7 +4105,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4064,7 +4148,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4107,7 +4191,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4150,7 +4234,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4193,7 +4277,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4236,7 +4320,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4279,7 +4363,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4322,7 +4406,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4365,7 +4449,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4408,7 +4492,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4451,7 +4535,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4494,7 +4578,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4537,7 +4621,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4580,7 +4664,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4623,7 +4707,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4666,7 +4750,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4709,7 +4793,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4752,7 +4836,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4795,7 +4879,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4838,7 +4922,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4881,7 +4965,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4924,7 +5008,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4967,7 +5051,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5010,7 +5094,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5053,7 +5137,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5096,7 +5180,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5139,7 +5223,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5182,7 +5266,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5225,7 +5309,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5268,7 +5352,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5311,7 +5395,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5354,7 +5438,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5397,7 +5481,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5440,7 +5524,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5483,7 +5567,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5526,7 +5610,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5569,7 +5653,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5612,7 +5696,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5655,7 +5739,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5698,7 +5782,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5741,7 +5825,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5784,7 +5868,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5827,7 +5911,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5870,7 +5954,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5913,7 +5997,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5956,7 +6040,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5999,7 +6083,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6042,7 +6126,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6085,7 +6169,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6128,7 +6212,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6171,7 +6255,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6214,7 +6298,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6257,7 +6341,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6300,7 +6384,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6343,7 +6427,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6386,7 +6470,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6429,7 +6513,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6472,7 +6556,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6515,7 +6599,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6558,7 +6642,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6601,7 +6685,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6644,7 +6728,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6687,7 +6771,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6730,7 +6814,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6773,7 +6857,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6816,7 +6900,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6859,7 +6943,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6902,7 +6986,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6945,7 +7029,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6988,7 +7072,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7031,7 +7115,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7074,7 +7158,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7117,7 +7201,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7160,7 +7244,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7203,7 +7287,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7246,7 +7330,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7289,7 +7373,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7332,7 +7416,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7375,7 +7459,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7418,7 +7502,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7461,7 +7545,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7504,7 +7588,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7547,7 +7631,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7590,7 +7674,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7633,7 +7717,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7676,7 +7760,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7719,7 +7803,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7762,7 +7846,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7805,7 +7889,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7848,7 +7932,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7891,7 +7975,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7934,7 +8018,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7977,7 +8061,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8020,7 +8104,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8063,7 +8147,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8106,7 +8190,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8149,7 +8233,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8192,7 +8276,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8235,7 +8319,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8278,7 +8362,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8321,7 +8405,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8364,7 +8448,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8407,7 +8491,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8450,7 +8534,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8493,7 +8577,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8536,7 +8620,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8579,7 +8663,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8622,7 +8706,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8665,7 +8749,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8708,7 +8792,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8751,7 +8835,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8794,7 +8878,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8837,7 +8921,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8880,7 +8964,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8923,7 +9007,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8966,7 +9050,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9009,7 +9093,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9052,7 +9136,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9095,7 +9179,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9138,7 +9222,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9181,7 +9265,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9224,7 +9308,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9267,7 +9351,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9310,7 +9394,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9353,7 +9437,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9396,7 +9480,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9439,7 +9523,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9482,7 +9566,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9525,7 +9609,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9568,7 +9652,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9611,7 +9695,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9654,7 +9738,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9697,7 +9781,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9740,7 +9824,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9783,7 +9867,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9826,7 +9910,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9869,7 +9953,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9912,7 +9996,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9955,7 +10039,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9998,7 +10082,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10041,7 +10125,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10084,7 +10168,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10127,7 +10211,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10170,7 +10254,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10213,7 +10297,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10256,7 +10340,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10299,7 +10383,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10342,7 +10426,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10385,7 +10469,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10428,7 +10512,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10471,7 +10555,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10514,7 +10598,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10557,7 +10641,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>224</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10600,7 +10684,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10643,7 +10727,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10686,7 +10770,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10729,7 +10813,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10772,7 +10856,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10815,7 +10899,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10858,7 +10942,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10901,7 +10985,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10944,7 +11028,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10987,7 +11071,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11030,7 +11114,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11073,7 +11157,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11116,7 +11200,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11159,7 +11243,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11202,7 +11286,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11245,7 +11329,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11288,7 +11372,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>241</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11331,7 +11415,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>27510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11665,17 +11749,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.84375" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11686,7 +11770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11697,7 +11781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11708,7 +11792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11719,7 +11803,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11730,7 +11814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11741,7 +11825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11752,7 +11836,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11763,7 +11847,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11771,7 +11855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11782,7 +11866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11793,7 +11877,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11804,7 +11888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11815,7 +11899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11826,7 +11910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11837,7 +11921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11848,7 +11932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11859,7 +11943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11870,7 +11954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11881,7 +11965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11892,7 +11976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11903,7 +11987,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11914,7 +11998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -11925,7 +12009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -11936,7 +12020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -11947,7 +12031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -11958,7 +12042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -11969,7 +12053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -11980,7 +12064,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -11991,7 +12075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -12002,7 +12086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12013,7 +12097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12024,7 +12108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12035,7 +12119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12046,7 +12130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12057,7 +12141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12068,7 +12152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12079,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12089,8 +12173,11 @@
       <c r="C38" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -12100,8 +12187,11 @@
       <c r="C39" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -12111,8 +12201,11 @@
       <c r="C40" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -12122,8 +12215,11 @@
       <c r="C41" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -12133,8 +12229,11 @@
       <c r="C42" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -12144,8 +12243,11 @@
       <c r="C43" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -12155,8 +12257,11 @@
       <c r="C44" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -12166,8 +12271,11 @@
       <c r="C45" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -12177,8 +12285,11 @@
       <c r="C46" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -12188,8 +12299,11 @@
       <c r="C47" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -12199,8 +12313,11 @@
       <c r="C48" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -12210,8 +12327,11 @@
       <c r="C49" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -12221,8 +12341,11 @@
       <c r="C50" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -12232,8 +12355,11 @@
       <c r="C51" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -12243,8 +12369,11 @@
       <c r="C52" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -12254,8 +12383,11 @@
       <c r="C53" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -12265,8 +12397,11 @@
       <c r="C54" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -12276,8 +12411,11 @@
       <c r="C55" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -12287,8 +12425,11 @@
       <c r="C56" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -12298,8 +12439,11 @@
       <c r="C57" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -12310,7 +12454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -12321,7 +12465,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -12332,7 +12476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -12343,7 +12487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -12354,7 +12498,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -12365,7 +12509,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -12376,7 +12520,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -12387,7 +12531,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -12398,7 +12542,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -12409,7 +12553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -12420,7 +12564,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -12431,7 +12575,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -12442,7 +12586,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -12453,7 +12597,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -12464,7 +12608,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -12475,7 +12619,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -12486,7 +12630,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -12497,7 +12641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -12508,7 +12652,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -12519,7 +12663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -12530,7 +12674,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -12544,7 +12688,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -12558,7 +12702,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -12572,7 +12716,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -12586,7 +12730,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -12600,7 +12744,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -12614,7 +12758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -12628,7 +12772,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -12642,7 +12786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -12656,7 +12800,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -12670,7 +12814,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -12684,7 +12828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -12698,7 +12842,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -12712,7 +12856,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -12726,7 +12870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -12740,7 +12884,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -12754,7 +12898,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -12768,7 +12912,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -12782,7 +12926,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -12796,7 +12940,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -12810,483 +12954,630 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>276</v>
+      </c>
+      <c r="D111" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>276</v>
+      </c>
+      <c r="D114" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>276</v>
+      </c>
+      <c r="D115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>276</v>
+      </c>
+      <c r="D118" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B119" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B120" t="s">
-        <v>276</v>
-      </c>
-      <c r="C120" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B120" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B121" t="s">
-        <v>276</v>
-      </c>
-      <c r="C121" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B122" t="s">
-        <v>276</v>
-      </c>
-      <c r="C122" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B123" t="s">
-        <v>276</v>
-      </c>
-      <c r="C123" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B123" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B124" t="s">
-        <v>276</v>
-      </c>
-      <c r="C124" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B125" t="s">
-        <v>276</v>
-      </c>
-      <c r="C125" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B126" t="s">
-        <v>276</v>
-      </c>
-      <c r="C126" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B127" t="s">
-        <v>276</v>
-      </c>
-      <c r="C127" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B128" t="s">
-        <v>276</v>
-      </c>
-      <c r="C128" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B129" t="s">
-        <v>276</v>
-      </c>
-      <c r="C129" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B130" t="s">
-        <v>276</v>
-      </c>
-      <c r="C130" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B130" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B131" t="s">
-        <v>276</v>
-      </c>
-      <c r="C131" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B131" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B132" t="s">
-        <v>276</v>
-      </c>
-      <c r="C132" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B133" t="s">
-        <v>276</v>
-      </c>
-      <c r="C133" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B134" t="s">
-        <v>276</v>
-      </c>
-      <c r="C134" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B135" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B135" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B136" t="s">
-        <v>276</v>
-      </c>
-      <c r="C136" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B137" t="s">
-        <v>276</v>
+      <c r="B137" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B138" t="s">
-        <v>276</v>
+      <c r="B138" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B139" t="s">
-        <v>276</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B139" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B140" t="s">
-        <v>276</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -13297,7 +13588,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -13305,7 +13596,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -13316,7 +13607,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -13327,7 +13618,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -13338,7 +13629,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -13349,7 +13640,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -13360,7 +13651,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -13371,7 +13662,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -13382,7 +13673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -13393,7 +13684,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -13401,7 +13692,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -13412,7 +13703,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -13423,7 +13714,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -13434,7 +13725,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -13445,7 +13736,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -13453,7 +13744,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -13464,7 +13755,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -13475,7 +13766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -13486,7 +13777,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -13497,7 +13788,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -13505,7 +13796,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -13516,7 +13807,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -13524,7 +13815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -13535,7 +13826,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -13546,7 +13837,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -13557,7 +13848,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -13565,7 +13856,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -13576,7 +13867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -13587,7 +13878,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -13598,7 +13889,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -13609,7 +13900,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -13620,7 +13911,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -13631,7 +13922,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -13642,7 +13933,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -13653,7 +13944,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -13664,7 +13955,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -13675,7 +13966,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -13686,7 +13977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -13697,7 +13988,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -13708,7 +13999,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -13719,7 +14010,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -13730,7 +14021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -13741,7 +14032,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -13752,7 +14043,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -13763,7 +14054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -13774,7 +14065,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -13785,7 +14076,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -13796,7 +14087,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -13807,7 +14098,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -13815,7 +14106,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -13826,7 +14117,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -13837,7 +14128,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -13848,7 +14139,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -13859,7 +14150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -13867,7 +14158,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -13875,7 +14166,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -13886,7 +14177,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -13897,7 +14188,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -13908,7 +14199,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -13919,7 +14210,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -13930,7 +14221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -13941,7 +14232,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -13952,7 +14243,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -13960,7 +14251,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -13971,7 +14262,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -13982,7 +14273,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -13993,7 +14284,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -14001,7 +14292,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -14009,7 +14300,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -14017,7 +14308,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -14028,7 +14319,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -14039,12 +14330,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -14055,7 +14346,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wchwe\ResearchCode\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40CEE20-10F6-4659-8AA3-A0E56BEA9FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB89577-A2E0-4958-B813-C414F0D9ADC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41130" yWindow="3165" windowWidth="17400" windowHeight="16635" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="305">
   <si>
     <t>project name</t>
   </si>
@@ -2686,7 +2686,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>141990</xdr:rowOff>
+      <xdr:rowOff>144712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2729,7 +2729,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>138050</xdr:rowOff>
+      <xdr:rowOff>132608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2772,7 +2772,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>138280</xdr:rowOff>
+      <xdr:rowOff>132838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2858,7 +2858,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>124050</xdr:rowOff>
+      <xdr:rowOff>121328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2944,7 +2944,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>103830</xdr:rowOff>
+      <xdr:rowOff>106552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2987,7 +2987,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>99890</xdr:rowOff>
+      <xdr:rowOff>94448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3030,7 +3030,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>100120</xdr:rowOff>
+      <xdr:rowOff>94678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3116,7 +3116,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>85890</xdr:rowOff>
+      <xdr:rowOff>83168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3202,7 +3202,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>65670</xdr:rowOff>
+      <xdr:rowOff>68392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3245,7 +3245,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>62090</xdr:rowOff>
+      <xdr:rowOff>56648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3288,7 +3288,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>61960</xdr:rowOff>
+      <xdr:rowOff>56518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3374,7 +3374,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>48090</xdr:rowOff>
+      <xdr:rowOff>45368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3460,7 +3460,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3503,7 +3503,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3546,7 +3546,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3589,7 +3589,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3632,7 +3632,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3675,7 +3675,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3718,7 +3718,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3761,7 +3761,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3804,7 +3804,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3847,7 +3847,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3890,7 +3890,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3933,7 +3933,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3976,7 +3976,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4019,7 +4019,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4062,7 +4062,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4105,7 +4105,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4148,7 +4148,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4191,7 +4191,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4234,7 +4234,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4277,7 +4277,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4320,7 +4320,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4363,7 +4363,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4406,7 +4406,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4449,7 +4449,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4492,7 +4492,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4535,7 +4535,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4578,7 +4578,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4621,7 +4621,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4664,7 +4664,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4707,7 +4707,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4750,7 +4750,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4793,7 +4793,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4836,7 +4836,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4879,7 +4879,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4922,7 +4922,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4965,7 +4965,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5008,7 +5008,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5051,7 +5051,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5094,7 +5094,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5137,7 +5137,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5180,7 +5180,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5223,7 +5223,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5266,7 +5266,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5309,7 +5309,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5352,7 +5352,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5395,7 +5395,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5438,7 +5438,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5481,7 +5481,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5524,7 +5524,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5567,7 +5567,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5610,7 +5610,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5653,7 +5653,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5696,7 +5696,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5739,7 +5739,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5782,7 +5782,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5825,7 +5825,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5868,7 +5868,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5911,7 +5911,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5954,7 +5954,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5997,7 +5997,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6040,7 +6040,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6083,7 +6083,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6126,7 +6126,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6169,7 +6169,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6212,7 +6212,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6255,7 +6255,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6298,7 +6298,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6341,7 +6341,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6384,7 +6384,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6427,7 +6427,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6470,7 +6470,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6513,7 +6513,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6556,7 +6556,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6599,7 +6599,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6642,7 +6642,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6685,7 +6685,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6728,7 +6728,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6771,7 +6771,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6814,7 +6814,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6857,7 +6857,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6900,7 +6900,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6943,7 +6943,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6986,7 +6986,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7029,7 +7029,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7072,7 +7072,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7115,7 +7115,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7158,7 +7158,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7201,7 +7201,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7244,7 +7244,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7287,7 +7287,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7330,7 +7330,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7373,7 +7373,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7416,7 +7416,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7459,7 +7459,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7502,7 +7502,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7545,7 +7545,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7588,7 +7588,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7631,7 +7631,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7674,7 +7674,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7717,7 +7717,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7760,7 +7760,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7803,7 +7803,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7846,7 +7846,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7889,7 +7889,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7932,7 +7932,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7975,7 +7975,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8018,7 +8018,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8061,7 +8061,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8104,7 +8104,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8147,7 +8147,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8190,7 +8190,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8233,7 +8233,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8276,7 +8276,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8319,7 +8319,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8362,7 +8362,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8405,7 +8405,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8448,7 +8448,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8491,7 +8491,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8534,7 +8534,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8577,7 +8577,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8620,7 +8620,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8663,7 +8663,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8706,7 +8706,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8749,7 +8749,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8792,7 +8792,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8835,7 +8835,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8878,7 +8878,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8921,7 +8921,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8964,7 +8964,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9007,7 +9007,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9050,7 +9050,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9093,7 +9093,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9136,7 +9136,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9179,7 +9179,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9222,7 +9222,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9265,7 +9265,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9308,7 +9308,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9351,7 +9351,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9394,7 +9394,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9437,7 +9437,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9480,7 +9480,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9523,7 +9523,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9566,7 +9566,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9609,7 +9609,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9652,7 +9652,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9695,7 +9695,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9738,7 +9738,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9781,7 +9781,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9824,7 +9824,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9867,7 +9867,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9910,7 +9910,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9953,7 +9953,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9996,7 +9996,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10039,7 +10039,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10082,7 +10082,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10125,7 +10125,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10168,7 +10168,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10211,7 +10211,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10254,7 +10254,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10297,7 +10297,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10340,7 +10340,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10383,7 +10383,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10426,7 +10426,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10469,7 +10469,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10512,7 +10512,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10555,7 +10555,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10598,7 +10598,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10641,7 +10641,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>224</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10684,7 +10684,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10727,7 +10727,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10770,7 +10770,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10813,7 +10813,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10856,7 +10856,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10899,7 +10899,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10942,7 +10942,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10985,7 +10985,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11028,7 +11028,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11071,7 +11071,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11114,7 +11114,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11157,7 +11157,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11200,7 +11200,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11243,7 +11243,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11286,7 +11286,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11329,7 +11329,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11372,7 +11372,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>241</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11415,7 +11415,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>27510</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11749,17 +11749,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.921875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -13437,147 +13437,195 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B141" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B142" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B143" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -13588,7 +13636,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -13596,7 +13644,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -13607,7 +13655,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -13618,7 +13666,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -13629,7 +13677,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -13640,7 +13688,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -13651,7 +13699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -13662,7 +13710,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -13673,7 +13721,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -13684,7 +13732,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -13692,7 +13740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -13703,7 +13751,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -13714,7 +13762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -13725,7 +13773,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -13736,7 +13784,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -13744,7 +13792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -13755,7 +13803,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -13766,7 +13814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -13777,7 +13825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -13788,7 +13836,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -13796,7 +13844,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -13807,7 +13855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -13815,7 +13863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -13826,7 +13874,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -13837,7 +13885,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -13848,7 +13896,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -13856,7 +13904,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -13867,7 +13915,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -13878,7 +13926,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -13889,7 +13937,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -13900,7 +13948,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -13911,7 +13959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -13922,7 +13970,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -13933,7 +13981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -13944,7 +13992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -13955,7 +14003,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -13966,7 +14014,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -13977,7 +14025,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -13988,7 +14036,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -13999,7 +14047,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -14010,7 +14058,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -14021,7 +14069,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -14032,7 +14080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -14043,7 +14091,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -14054,7 +14102,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -14065,7 +14113,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -14076,7 +14124,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -14087,7 +14135,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -14098,7 +14146,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -14106,7 +14154,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -14117,7 +14165,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -14128,7 +14176,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -14139,7 +14187,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -14150,7 +14198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -14158,7 +14206,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -14166,7 +14214,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -14177,7 +14225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -14188,7 +14236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -14199,7 +14247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -14210,7 +14258,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -14221,7 +14269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -14232,7 +14280,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -14243,7 +14291,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -14251,7 +14299,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -14262,7 +14310,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -14273,7 +14321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -14284,7 +14332,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -14292,7 +14340,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -14300,7 +14348,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -14308,7 +14356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -14319,7 +14367,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -14330,12 +14378,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -14346,7 +14394,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wchwe\ResearchCode\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB89577-A2E0-4958-B813-C414F0D9ADC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B27F3E7-AC9C-4463-985E-E410326C6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41130" yWindow="3165" windowWidth="17400" windowHeight="16635" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="305">
   <si>
     <t>project name</t>
   </si>
@@ -856,12 +856,6 @@
     <t>no git repo, project status: retired</t>
   </si>
   <si>
-    <t>no gir repo</t>
-  </si>
-  <si>
-    <t>becomes tons of sub projects, save for later</t>
-  </si>
-  <si>
     <t>has 4 sub projects</t>
   </si>
   <si>
@@ -935,6 +929,12 @@
   </si>
   <si>
     <t>httpcomponents-client</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Failed to extract data from GetInfo.java</t>
   </si>
 </sst>
 </file>
@@ -11749,17 +11749,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.921875" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12174,10 +12174,10 @@
         <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -12188,10 +12188,10 @@
         <v>252</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -12202,10 +12202,10 @@
         <v>252</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -12216,10 +12216,10 @@
         <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -12230,10 +12230,10 @@
         <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -12244,10 +12244,10 @@
         <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -12258,10 +12258,10 @@
         <v>252</v>
       </c>
       <c r="D44" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -12272,10 +12272,10 @@
         <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -12286,10 +12286,10 @@
         <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -12300,10 +12300,10 @@
         <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -12314,10 +12314,10 @@
         <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -12328,10 +12328,10 @@
         <v>252</v>
       </c>
       <c r="D49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -12342,10 +12342,10 @@
         <v>252</v>
       </c>
       <c r="D50" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -12356,10 +12356,10 @@
         <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -12370,10 +12370,10 @@
         <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -12384,10 +12384,10 @@
         <v>252</v>
       </c>
       <c r="D53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -12398,10 +12398,10 @@
         <v>252</v>
       </c>
       <c r="D54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -12412,10 +12412,10 @@
         <v>252</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -12426,10 +12426,10 @@
         <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -12440,10 +12440,10 @@
         <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -12962,46 +12962,46 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
-      <c r="C100" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C100" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
       </c>
-      <c r="C101" t="s">
-        <v>276</v>
+      <c r="C101" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D101" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
-      <c r="C102" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C102" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -13009,13 +13009,13 @@
         <v>14</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -13023,179 +13023,179 @@
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
       </c>
-      <c r="C105" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C105" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B106" t="s">
         <v>14</v>
       </c>
-      <c r="C106" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C106" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
       </c>
-      <c r="C107" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C107" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
       </c>
-      <c r="C108" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C108" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
       </c>
-      <c r="C109" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C109" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
       </c>
-      <c r="C110" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C110" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
       </c>
-      <c r="C111" t="s">
-        <v>276</v>
+      <c r="C111" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
       </c>
-      <c r="C112" t="s">
-        <v>276</v>
+      <c r="C112" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D112" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B113" t="s">
         <v>14</v>
       </c>
-      <c r="C113" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C113" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B114" t="s">
         <v>14</v>
       </c>
-      <c r="C114" t="s">
-        <v>276</v>
+      <c r="C114" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D114" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
       </c>
-      <c r="C115" t="s">
-        <v>276</v>
+      <c r="C115" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D115" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
       </c>
-      <c r="C116" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C116" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
       </c>
-      <c r="C117" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C117" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
       </c>
-      <c r="C118" t="s">
-        <v>276</v>
+      <c r="C118" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -13415,217 +13415,277 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B156" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -13636,7 +13696,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -13644,7 +13704,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -13655,7 +13715,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -13666,7 +13726,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -13677,7 +13737,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -13688,7 +13748,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -13699,7 +13759,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -13710,7 +13770,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -13721,7 +13781,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -13732,7 +13792,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -13740,7 +13800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -13751,7 +13811,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -13762,7 +13822,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -13773,7 +13833,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -13784,7 +13844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -13792,7 +13852,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -13803,7 +13863,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -13814,7 +13874,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -13825,7 +13885,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -13836,7 +13896,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -13844,7 +13904,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -13855,7 +13915,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -13863,7 +13923,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -13874,7 +13934,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -13885,7 +13945,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -13896,7 +13956,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -13904,7 +13964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -13915,7 +13975,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -13926,7 +13986,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -13937,7 +13997,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -13948,7 +14008,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -13959,7 +14019,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -13970,7 +14030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -13981,7 +14041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -13992,7 +14052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -14003,7 +14063,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -14014,7 +14074,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -14025,7 +14085,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -14036,7 +14096,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -14047,7 +14107,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -14058,7 +14118,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -14069,7 +14129,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -14080,7 +14140,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -14091,7 +14151,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -14102,7 +14162,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -14113,7 +14173,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -14124,7 +14184,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -14135,7 +14195,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -14146,7 +14206,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -14154,7 +14214,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -14165,7 +14225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -14176,7 +14236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -14187,7 +14247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -14198,7 +14258,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -14206,7 +14266,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -14214,7 +14274,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -14225,7 +14285,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -14236,7 +14296,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -14247,7 +14307,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -14258,7 +14318,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -14269,7 +14329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -14280,7 +14340,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -14291,7 +14351,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -14299,7 +14359,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -14310,7 +14370,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -14321,7 +14381,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -14332,7 +14392,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -14340,7 +14400,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -14348,7 +14408,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -14356,7 +14416,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -14367,7 +14427,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -14378,12 +14438,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -14394,7 +14454,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B27F3E7-AC9C-4463-985E-E410326C6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE59F6A-5A0A-439C-8982-60515512F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="316">
   <si>
     <t>project name</t>
   </si>
@@ -935,13 +950,46 @@
   </si>
   <si>
     <t>Failed to extract data from GetInfo.java</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of status</t>
+  </si>
+  <si>
+    <t>INTAKEN:</t>
+  </si>
+  <si>
+    <t>DONE:</t>
+  </si>
+  <si>
+    <t>IN PROGRESS:</t>
+  </si>
+  <si>
+    <t>NO REPO:</t>
+  </si>
+  <si>
+    <t>NO TEST:</t>
+  </si>
+  <si>
+    <t>IMPORT ISSUE:</t>
+  </si>
+  <si>
+    <t>SUM:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -957,8 +1005,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,6 +1026,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -981,11 +1041,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -996,8 +1057,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -11448,6 +11516,832 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wang Xiao" refreshedDate="44519.948433912039" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="242" xr:uid="{8FF2336E-0E40-4A73-9615-4DD1D90DEF13}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:C243" sheet="Projects"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="status" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Finished"/>
+        <s v="No Git Repo"/>
+        <s v="can't import"/>
+        <s v="DONE"/>
+        <s v="Import Failure"/>
+        <s v="NO TEST"/>
+        <s v="in progress"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="242">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{479A7E50-4B60-4288-A5CE-7FC30EBD0898}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of status" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11746,20 +12640,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68482E55-9BB7-40CD-AA32-4ED014247634}">
+  <dimension ref="A3:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="8">
+        <v>93</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="8">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6">
+        <f>SUM(B5,B6)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="8">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F4:F9)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="8">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A243" sqref="A2:A243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11770,7 +12806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11781,7 +12817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11792,7 +12828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11803,7 +12839,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11814,7 +12850,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -11825,7 +12861,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11836,7 +12872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11847,7 +12883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11855,7 +12891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11866,7 +12902,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -11877,7 +12913,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -11888,7 +12924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -11899,7 +12935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11910,7 +12946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -11921,7 +12957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11932,7 +12968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11943,7 +12979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11954,7 +12990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -11965,7 +13001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -11976,7 +13012,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -11987,7 +13023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11998,7 +13034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -12009,7 +13045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -12020,7 +13056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -12031,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -12042,7 +13078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -12053,7 +13089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -12064,7 +13100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -12075,7 +13111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -12086,7 +13122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -12097,7 +13133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -12108,7 +13144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12119,7 +13155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12130,7 +13166,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -12141,7 +13177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12152,7 +13188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12163,7 +13199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -12177,7 +13213,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -12191,7 +13227,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -12205,7 +13241,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -12219,7 +13255,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -12233,7 +13269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -12247,7 +13283,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -12261,7 +13297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -12275,7 +13311,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -12289,7 +13325,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -12303,7 +13339,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -12317,7 +13353,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -12331,7 +13367,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -12345,7 +13381,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -12359,7 +13395,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -12373,7 +13409,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -12387,7 +13423,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -12401,7 +13437,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -12415,7 +13451,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -12429,7 +13465,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -12443,7 +13479,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -12454,7 +13490,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -12465,7 +13501,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -12476,7 +13512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -12487,7 +13523,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -12498,7 +13534,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -12509,7 +13545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -12520,7 +13556,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -12531,7 +13567,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -12542,7 +13578,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -12553,7 +13589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -12564,7 +13600,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -12575,7 +13611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -12586,7 +13622,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -12597,7 +13633,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -12608,7 +13644,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -12619,7 +13655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -12630,7 +13666,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -12641,7 +13677,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -12652,7 +13688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -12663,7 +13699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -12674,7 +13710,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -12688,7 +13724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -12702,7 +13738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -12716,7 +13752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -12730,7 +13766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -12744,7 +13780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -12758,7 +13794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -12772,7 +13808,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -12786,7 +13822,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -12800,7 +13836,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -12814,7 +13850,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -12828,7 +13864,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -12842,7 +13878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -12856,7 +13892,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -12870,7 +13906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -12884,7 +13920,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -12898,7 +13934,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -12912,7 +13948,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -12926,7 +13962,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -12940,7 +13976,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -12954,7 +13990,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -12965,7 +14001,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -12976,7 +14012,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -12990,7 +14026,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -13001,7 +14037,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -13015,7 +14051,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -13026,7 +14062,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -13037,7 +14073,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -13048,7 +14084,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -13059,7 +14095,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -13070,7 +14106,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -13081,7 +14117,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -13092,7 +14128,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -13106,7 +14142,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -13120,7 +14156,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -13131,7 +14167,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -13145,7 +14181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -13159,7 +14195,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -13170,7 +14206,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -13181,7 +14217,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -13195,7 +14231,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -13206,7 +14242,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -13217,7 +14253,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -13228,7 +14264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
@@ -13239,7 +14275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -13250,7 +14286,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
@@ -13261,7 +14297,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -13272,7 +14308,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
@@ -13283,7 +14319,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -13294,7 +14330,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
@@ -13305,7 +14341,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -13316,7 +14352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -13327,7 +14363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -13338,7 +14374,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -13349,7 +14385,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -13360,7 +14396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -13371,7 +14407,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -13382,7 +14418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -13393,7 +14429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -13404,7 +14440,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -13415,7 +14451,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -13426,7 +14462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -13437,7 +14473,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
@@ -13448,7 +14484,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -13459,7 +14495,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
@@ -13470,7 +14506,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
@@ -13481,7 +14517,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -13492,7 +14528,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -13503,7 +14539,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -13514,7 +14550,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -13525,7 +14561,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -13536,7 +14572,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
@@ -13547,7 +14583,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
@@ -13558,7 +14594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -13569,7 +14605,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -13580,7 +14616,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -13591,7 +14627,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -13602,7 +14638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -13613,7 +14649,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -13624,7 +14660,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -13635,57 +14671,57 @@
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -13696,7 +14732,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -13704,7 +14740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -13715,7 +14751,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -13726,7 +14762,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -13737,7 +14773,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -13748,7 +14784,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -13759,7 +14795,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -13770,7 +14806,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -13781,7 +14817,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -13792,7 +14828,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -13800,7 +14836,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -13811,7 +14847,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -13822,7 +14858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -13833,7 +14869,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -13844,7 +14880,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -13852,7 +14888,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -13863,7 +14899,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -13874,7 +14910,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -13885,7 +14921,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -13896,7 +14932,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -13904,7 +14940,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -13915,7 +14951,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -13923,7 +14959,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -13934,7 +14970,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -13945,7 +14981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -13956,7 +14992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -13964,7 +15000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -13975,7 +15011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -13986,7 +15022,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -13997,7 +15033,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -14008,7 +15044,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -14019,7 +15055,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -14030,7 +15066,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -14041,7 +15077,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -14052,7 +15088,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -14063,7 +15099,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -14074,7 +15110,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -14085,7 +15121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -14096,7 +15132,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -14107,7 +15143,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -14118,7 +15154,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -14129,7 +15165,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -14140,7 +15176,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -14151,7 +15187,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -14162,7 +15198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -14173,7 +15209,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -14184,7 +15220,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -14195,7 +15231,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -14206,7 +15242,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -14214,7 +15250,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -14225,7 +15261,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -14236,7 +15272,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -14247,7 +15283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -14258,7 +15294,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -14266,7 +15302,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -14274,7 +15310,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -14285,7 +15321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -14296,7 +15332,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -14307,7 +15343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -14318,7 +15354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -14329,7 +15365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -14340,7 +15376,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -14351,7 +15387,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -14359,7 +15395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -14370,7 +15406,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -14381,7 +15417,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -14392,7 +15428,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -14400,7 +15436,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -14408,7 +15444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -14416,7 +15452,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -14427,7 +15463,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -14438,12 +15474,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -14454,7 +15490,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx199\mock-usage\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE59F6A-5A0A-439C-8982-60515512F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336096FC-20BF-4E60-80A3-86D8E58966FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="316">
   <si>
     <t>project name</t>
   </si>
@@ -12277,7 +12277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{479A7E50-4B60-4288-A5CE-7FC30EBD0898}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{479A7E50-4B60-4288-A5CE-7FC30EBD0898}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12644,17 +12644,17 @@
   <dimension ref="A3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>305</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>251</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>252</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>273</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>276</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>250</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -12762,13 +12762,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>307</v>
       </c>
@@ -12785,17 +12785,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A243" sqref="A2:A243"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -14671,68 +14671,128 @@
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B159" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C159" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B160" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B161" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B162" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B163" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B164" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B165" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B166" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B167" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>248</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B169" t="s">
         <v>248</v>
       </c>
-      <c r="C169" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C169" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -14740,95 +14800,95 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B171" t="s">
         <v>248</v>
       </c>
-      <c r="C171" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C171" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B172" t="s">
         <v>248</v>
       </c>
-      <c r="C172" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C172" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B173" t="s">
         <v>248</v>
       </c>
-      <c r="C173" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C173" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B174" t="s">
         <v>248</v>
       </c>
-      <c r="C174" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C174" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B175" t="s">
         <v>248</v>
       </c>
-      <c r="C175" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C175" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B176" t="s">
         <v>248</v>
       </c>
-      <c r="C176" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C176" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B177" t="s">
         <v>248</v>
       </c>
-      <c r="C177" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C177" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B178" t="s">
         <v>248</v>
       </c>
-      <c r="C178" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C178" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -14836,7 +14896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -14847,7 +14907,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -14858,7 +14918,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -14869,7 +14929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -14880,7 +14940,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -14888,7 +14948,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -14899,7 +14959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -14910,7 +14970,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -14921,7 +14981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -14932,7 +14992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -14940,7 +15000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -14951,7 +15011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -14959,7 +15019,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -14970,7 +15030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -14981,7 +15041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -14992,7 +15052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -15000,7 +15060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -15011,7 +15071,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -15022,7 +15082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -15033,7 +15093,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -15044,7 +15104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -15055,7 +15115,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -15066,7 +15126,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -15077,7 +15137,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -15088,7 +15148,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -15099,7 +15159,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -15110,7 +15170,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -15121,7 +15181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -15132,7 +15192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -15143,7 +15203,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -15154,7 +15214,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -15165,7 +15225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -15176,7 +15236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -15187,7 +15247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -15198,7 +15258,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -15209,7 +15269,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -15220,7 +15280,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -15231,7 +15291,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -15242,7 +15302,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -15250,7 +15310,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -15261,7 +15321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -15272,7 +15332,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -15283,7 +15343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -15294,7 +15354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -15302,7 +15362,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -15310,7 +15370,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -15321,7 +15381,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -15332,7 +15392,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -15343,7 +15403,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -15354,7 +15414,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -15365,7 +15425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -15376,7 +15436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -15387,7 +15447,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -15395,7 +15455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -15406,7 +15466,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -15417,7 +15477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -15428,7 +15488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -15436,7 +15496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -15444,7 +15504,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -15452,7 +15512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -15463,7 +15523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -15474,12 +15534,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -15490,7 +15550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wchwe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336096FC-20BF-4E60-80A3-86D8E58966FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE952B7D-7F40-466C-892B-C4C5D5D9B3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48270" yWindow="2205" windowWidth="17400" windowHeight="16635" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -2754,7 +2754,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>144712</xdr:rowOff>
+      <xdr:rowOff>140630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2797,7 +2797,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>132608</xdr:rowOff>
+      <xdr:rowOff>135329</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2840,7 +2840,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>132838</xdr:rowOff>
+      <xdr:rowOff>135559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2883,7 +2883,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>135610</xdr:rowOff>
+      <xdr:rowOff>132889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2926,7 +2926,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>121328</xdr:rowOff>
+      <xdr:rowOff>125410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3012,7 +3012,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>106552</xdr:rowOff>
+      <xdr:rowOff>102470</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3055,7 +3055,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>94448</xdr:rowOff>
+      <xdr:rowOff>97169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3098,7 +3098,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>94678</xdr:rowOff>
+      <xdr:rowOff>97399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3141,7 +3141,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>97450</xdr:rowOff>
+      <xdr:rowOff>94729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3184,7 +3184,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>83168</xdr:rowOff>
+      <xdr:rowOff>87250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3270,7 +3270,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>68392</xdr:rowOff>
+      <xdr:rowOff>64310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3313,7 +3313,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>56648</xdr:rowOff>
+      <xdr:rowOff>59369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3356,7 +3356,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>56518</xdr:rowOff>
+      <xdr:rowOff>59239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3399,7 +3399,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>59290</xdr:rowOff>
+      <xdr:rowOff>56569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3442,7 +3442,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>45368</xdr:rowOff>
+      <xdr:rowOff>49450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3528,7 +3528,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3571,7 +3571,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3614,7 +3614,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3657,7 +3657,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3700,7 +3700,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3743,7 +3743,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3786,7 +3786,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3829,7 +3829,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3872,7 +3872,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3915,7 +3915,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3958,7 +3958,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4001,7 +4001,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4044,7 +4044,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4087,7 +4087,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4130,7 +4130,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4173,7 +4173,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4216,7 +4216,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4259,7 +4259,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4302,7 +4302,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4345,7 +4345,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4388,7 +4388,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4431,7 +4431,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4474,7 +4474,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4517,7 +4517,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4560,7 +4560,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4603,7 +4603,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4646,7 +4646,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4689,7 +4689,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4732,7 +4732,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4775,7 +4775,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4818,7 +4818,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4861,7 +4861,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4904,7 +4904,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4947,7 +4947,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4990,7 +4990,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5033,7 +5033,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5076,7 +5076,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5119,7 +5119,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5162,7 +5162,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5205,7 +5205,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5248,7 +5248,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5291,7 +5291,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5334,7 +5334,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5377,7 +5377,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5420,7 +5420,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5463,7 +5463,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5506,7 +5506,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5549,7 +5549,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5592,7 +5592,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5635,7 +5635,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5678,7 +5678,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5721,7 +5721,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5764,7 +5764,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5807,7 +5807,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5850,7 +5850,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5893,7 +5893,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5936,7 +5936,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5979,7 +5979,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6022,7 +6022,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6065,7 +6065,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6108,7 +6108,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6151,7 +6151,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6194,7 +6194,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6237,7 +6237,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6280,7 +6280,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6323,7 +6323,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6366,7 +6366,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6409,7 +6409,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6452,7 +6452,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6495,7 +6495,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6538,7 +6538,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6581,7 +6581,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6624,7 +6624,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6667,7 +6667,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6710,7 +6710,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6753,7 +6753,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6796,7 +6796,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6839,7 +6839,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6882,7 +6882,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6925,7 +6925,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6968,7 +6968,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7011,7 +7011,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7054,7 +7054,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7097,7 +7097,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7140,7 +7140,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7183,7 +7183,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7226,7 +7226,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7269,7 +7269,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7312,7 +7312,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7355,7 +7355,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7398,7 +7398,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7441,7 +7441,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7484,7 +7484,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7527,7 +7527,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7570,7 +7570,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7613,7 +7613,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7656,7 +7656,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7699,7 +7699,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7742,7 +7742,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7785,7 +7785,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7828,7 +7828,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7871,7 +7871,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7914,7 +7914,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7957,7 +7957,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8000,7 +8000,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8043,7 +8043,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8086,7 +8086,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8129,7 +8129,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8172,7 +8172,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8215,7 +8215,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8258,7 +8258,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8301,7 +8301,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8344,7 +8344,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8387,7 +8387,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8430,7 +8430,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8473,7 +8473,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8516,7 +8516,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8559,7 +8559,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8602,7 +8602,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8645,7 +8645,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8688,7 +8688,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8731,7 +8731,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8774,7 +8774,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8817,7 +8817,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8860,7 +8860,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8903,7 +8903,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8946,7 +8946,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8989,7 +8989,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9032,7 +9032,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9075,7 +9075,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9118,7 +9118,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9161,7 +9161,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9204,7 +9204,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9247,7 +9247,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9290,7 +9290,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9333,7 +9333,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9376,7 +9376,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9419,7 +9419,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9462,7 +9462,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9505,7 +9505,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9548,7 +9548,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9591,7 +9591,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9634,7 +9634,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9677,7 +9677,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9720,7 +9720,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9763,7 +9763,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9806,7 +9806,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9849,7 +9849,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9892,7 +9892,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9935,7 +9935,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9978,7 +9978,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10021,7 +10021,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10064,7 +10064,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10107,7 +10107,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10150,7 +10150,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10193,7 +10193,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10236,7 +10236,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10279,7 +10279,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10322,7 +10322,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10365,7 +10365,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10408,7 +10408,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10451,7 +10451,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10494,7 +10494,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10537,7 +10537,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10580,7 +10580,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10623,7 +10623,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10666,7 +10666,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10709,7 +10709,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>224</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10752,7 +10752,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10795,7 +10795,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10838,7 +10838,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10881,7 +10881,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10924,7 +10924,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10967,7 +10967,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11010,7 +11010,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11053,7 +11053,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11096,7 +11096,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11139,7 +11139,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11182,7 +11182,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11225,7 +11225,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11268,7 +11268,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11311,7 +11311,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11354,7 +11354,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11397,7 +11397,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11440,7 +11440,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>241</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11483,7 +11483,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>151920</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:rowOff>26150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12643,18 +12643,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68482E55-9BB7-40CD-AA32-4ED014247634}">
   <dimension ref="A3:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>305</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>251</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>252</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>273</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>276</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>250</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -12762,13 +12762,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>307</v>
       </c>
@@ -12785,17 +12785,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.84375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -14473,18 +14473,18 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C141" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -14492,10 +14492,10 @@
         <v>282</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
@@ -14503,10 +14503,10 @@
         <v>282</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
@@ -14514,10 +14514,10 @@
         <v>282</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -14525,10 +14525,10 @@
         <v>282</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -14536,10 +14536,10 @@
         <v>282</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -14547,10 +14547,10 @@
         <v>282</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -14558,10 +14558,10 @@
         <v>282</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -15534,12 +15534,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wchwe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE952B7D-7F40-466C-892B-C4C5D5D9B3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22C5F7B-CFE5-4FDE-AE5F-81690675CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48270" yWindow="2205" windowWidth="17400" windowHeight="16635" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -12647,14 +12647,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>305</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>251</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>252</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>273</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>276</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>250</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -12762,13 +12762,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>307</v>
       </c>
@@ -12785,17 +12785,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N152" sqref="N152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.84375" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -14569,10 +14569,10 @@
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
@@ -14580,10 +14580,10 @@
         <v>14</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
@@ -14591,10 +14591,10 @@
         <v>14</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -14602,10 +14602,10 @@
         <v>14</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -14613,10 +14613,10 @@
         <v>14</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -14624,10 +14624,10 @@
         <v>14</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -14635,10 +14635,10 @@
         <v>14</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -14646,10 +14646,10 @@
         <v>14</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -14657,10 +14657,10 @@
         <v>14</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -14668,10 +14668,10 @@
         <v>14</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -15534,12 +15534,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22C5F7B-CFE5-4FDE-AE5F-81690675CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71A4F66-AFAE-4C23-B10E-13D56B4A46A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12785,8 +12785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N152" sqref="N152"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71A4F66-AFAE-4C23-B10E-13D56B4A46A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945D513-9F1B-40A7-A157-C217B18794F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="316">
   <si>
     <t>project name</t>
   </si>
@@ -12785,8 +12785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K163" sqref="K163"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15537,6 +15537,12 @@
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>245</v>
+      </c>
+      <c r="B241" t="s">
+        <v>248</v>
+      </c>
+      <c r="C241" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945D513-9F1B-40A7-A157-C217B18794F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6A23D7-1764-4CFD-846B-1D8C1D92670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="317">
   <si>
     <t>project name</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>SUM:</t>
+  </si>
+  <si>
+    <t>no mock import</t>
   </si>
 </sst>
 </file>
@@ -12785,8 +12788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13489,6 +13492,9 @@
       <c r="C58" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D58" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -13511,6 +13517,9 @@
       <c r="C60" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D60" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -13522,6 +13531,9 @@
       <c r="C61" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D61" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -13533,6 +13545,9 @@
       <c r="C62" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D62" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -13544,6 +13559,9 @@
       <c r="C63" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D63" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -13577,6 +13595,9 @@
       <c r="C66" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D66" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -13588,6 +13609,9 @@
       <c r="C67" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D67" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -13599,6 +13623,9 @@
       <c r="C68" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D68" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -13610,6 +13637,9 @@
       <c r="C69" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D69" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -13621,6 +13651,9 @@
       <c r="C70" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D70" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -13632,6 +13665,9 @@
       <c r="C71" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D71" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -13643,6 +13679,9 @@
       <c r="C72" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D72" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -13654,6 +13693,9 @@
       <c r="C73" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D73" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -13665,6 +13707,9 @@
       <c r="C74" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D74" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -13676,6 +13721,9 @@
       <c r="C75" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D75" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -13687,6 +13735,9 @@
       <c r="C76" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D76" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -13698,6 +13749,7 @@
       <c r="C77" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
@@ -13708,6 +13760,9 @@
       </c>
       <c r="C78" s="2" t="s">
         <v>252</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6A23D7-1764-4CFD-846B-1D8C1D92670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0BC01-FA29-4963-955F-BC41018104D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12788,8 +12788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14011,7 +14011,7 @@
         <v>42</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D96" t="s">
         <v>271</v>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0BC01-FA29-4963-955F-BC41018104D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3162A2-2B37-4D3D-94CA-886E856F3686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14025,7 +14025,7 @@
         <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D97" t="s">
         <v>267</v>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3162A2-2B37-4D3D-94CA-886E856F3686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E78C5D3-8D4B-40C6-8CD7-F6C62E9DE9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="336">
   <si>
     <t>project name</t>
   </si>
@@ -986,6 +986,63 @@
   </si>
   <si>
     <t>no mock import</t>
+  </si>
+  <si>
+    <t>guacamole-server</t>
+  </si>
+  <si>
+    <t>hama</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>hbase</t>
+  </si>
+  <si>
+    <t>helix</t>
+  </si>
+  <si>
+    <t>hive</t>
+  </si>
+  <si>
+    <t>hivemind</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>httpcomponents</t>
+  </si>
+  <si>
+    <t>hudi</t>
+  </si>
+  <si>
+    <t>ignite</t>
+  </si>
+  <si>
+    <t>iotdb</t>
+  </si>
+  <si>
+    <t>isis</t>
+  </si>
+  <si>
+    <t>ivy</t>
+  </si>
+  <si>
+    <t>ivyde</t>
+  </si>
+  <si>
+    <t>jackrabbit</t>
+  </si>
+  <si>
+    <t>jakarta cactus</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>jclouds</t>
   </si>
 </sst>
 </file>
@@ -12788,8 +12845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14296,6 +14353,9 @@
       <c r="C119" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D119" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
@@ -14307,6 +14367,9 @@
       <c r="C120" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D120" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
@@ -14318,6 +14381,9 @@
       <c r="C121" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D121" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
@@ -14329,6 +14395,9 @@
       <c r="C122" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D122" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -14340,6 +14409,9 @@
       <c r="C123" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D123" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
@@ -14351,6 +14423,9 @@
       <c r="C124" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D124" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
@@ -14362,6 +14437,9 @@
       <c r="C125" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D125" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -14373,6 +14451,9 @@
       <c r="C126" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D126" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
@@ -14384,6 +14465,9 @@
       <c r="C127" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="D127" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -14395,8 +14479,11 @@
       <c r="C128" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -14406,8 +14493,11 @@
       <c r="C129" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -14417,8 +14507,11 @@
       <c r="C130" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -14428,8 +14521,11 @@
       <c r="C131" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -14439,8 +14535,11 @@
       <c r="C132" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -14450,8 +14549,11 @@
       <c r="C133" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -14461,8 +14563,11 @@
       <c r="C134" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -14472,8 +14577,11 @@
       <c r="C135" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -14483,8 +14591,11 @@
       <c r="C136" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -14494,8 +14605,11 @@
       <c r="C137" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -14505,8 +14619,11 @@
       <c r="C138" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -14517,7 +14634,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -14528,7 +14645,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
@@ -14539,7 +14656,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -14550,7 +14667,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
@@ -14561,7 +14678,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E78C5D3-8D4B-40C6-8CD7-F6C62E9DE9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD22E72-493F-42DF-9C4A-FA9A0893940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,13 +1036,13 @@
     <t>jackrabbit</t>
   </si>
   <si>
-    <t>jakarta cactus</t>
-  </si>
-  <si>
     <t>james</t>
   </si>
   <si>
     <t>jclouds</t>
+  </si>
+  <si>
+    <t>no git repo</t>
   </si>
 </sst>
 </file>
@@ -12845,8 +12845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14589,10 +14589,10 @@
         <v>42</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D136" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -14606,7 +14606,7 @@
         <v>274</v>
       </c>
       <c r="D137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -14620,7 +14620,7 @@
         <v>252</v>
       </c>
       <c r="D138" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD22E72-493F-42DF-9C4A-FA9A0893940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9D37F1-1E5C-41BD-9FC7-529934D92FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,9 +1012,6 @@
     <t>hop</t>
   </si>
   <si>
-    <t>httpcomponents</t>
-  </si>
-  <si>
     <t>hudi</t>
   </si>
   <si>
@@ -1043,6 +1040,9 @@
   </si>
   <si>
     <t>no git repo</t>
+  </si>
+  <si>
+    <t>httpcomponents-core</t>
   </si>
 </sst>
 </file>
@@ -12845,8 +12845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14351,7 +14351,7 @@
         <v>42</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D119" t="s">
         <v>317</v>
@@ -14466,7 +14466,7 @@
         <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -14480,7 +14480,7 @@
         <v>252</v>
       </c>
       <c r="D128" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -14494,7 +14494,7 @@
         <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -14508,7 +14508,7 @@
         <v>252</v>
       </c>
       <c r="D130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -14522,7 +14522,7 @@
         <v>252</v>
       </c>
       <c r="D131" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -14536,7 +14536,7 @@
         <v>252</v>
       </c>
       <c r="D132" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -14550,7 +14550,7 @@
         <v>252</v>
       </c>
       <c r="D133" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -14564,7 +14564,7 @@
         <v>252</v>
       </c>
       <c r="D134" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -14578,7 +14578,7 @@
         <v>252</v>
       </c>
       <c r="D135" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -14592,7 +14592,7 @@
         <v>250</v>
       </c>
       <c r="D136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -14606,7 +14606,7 @@
         <v>274</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -14620,7 +14620,7 @@
         <v>252</v>
       </c>
       <c r="D138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9D37F1-1E5C-41BD-9FC7-529934D92FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE50323-5207-4294-A7AB-7FF2A438689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="338">
   <si>
     <t>project name</t>
   </si>
@@ -1043,6 +1043,12 @@
   </si>
   <si>
     <t>httpcomponents-core</t>
+  </si>
+  <si>
+    <t>need to use a older version (release 1.9.2)</t>
+  </si>
+  <si>
+    <t>gradle</t>
   </si>
 </sst>
 </file>
@@ -12845,8 +12851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12855,7 +12861,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12866,7 +12872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12877,7 +12883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12888,7 +12894,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12899,7 +12905,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12910,7 +12916,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -12921,7 +12927,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -12943,7 +12949,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12951,7 +12957,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12962,7 +12968,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12984,7 +12990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -12995,7 +13001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -13006,7 +13012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -13017,7 +13023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -13027,8 +13033,11 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -13039,7 +13048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -13050,7 +13059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -13060,8 +13069,11 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -13072,7 +13084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -13083,7 +13095,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -13094,7 +13106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -13105,7 +13117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -13116,7 +13128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -13126,8 +13138,11 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -13138,7 +13153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -13149,7 +13164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -13160,7 +13175,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -13171,7 +13186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -13182,7 +13197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -13193,7 +13208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE50323-5207-4294-A7AB-7FF2A438689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82854F5B-0D72-4CB0-B5A4-BCD15D836709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12851,8 +12851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14365,8 +14365,8 @@
       <c r="B119" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>251</v>
+      <c r="C119" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D119" t="s">
         <v>317</v>
@@ -14393,8 +14393,8 @@
       <c r="B121" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>252</v>
+      <c r="C121" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D121" t="s">
         <v>319</v>
@@ -14450,7 +14450,7 @@
         <v>42</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D125" t="s">
         <v>323</v>
@@ -14547,8 +14547,8 @@
       <c r="B132" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>252</v>
+      <c r="C132" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D132" t="s">
         <v>328</v>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82854F5B-0D72-4CB0-B5A4-BCD15D836709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B632557-EA75-4DE7-87C7-1D82530F65E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,9 +871,6 @@
     <t>no git repo, project status: retired</t>
   </si>
   <si>
-    <t>has 4 sub projects</t>
-  </si>
-  <si>
     <t>Cannot find any mock import from GetInfo.java though there are files with imports according to AllMetrics.csv, and the files actually exists, perhaps because of gradle build</t>
   </si>
   <si>
@@ -1049,6 +1046,9 @@
   </si>
   <si>
     <t>gradle</t>
+  </si>
+  <si>
+    <t>has 4 sub projects and doesn't use mocking framework</t>
   </si>
 </sst>
 </file>
@@ -12722,10 +12722,10 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -12736,7 +12736,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F4" s="9">
         <v>11</v>
@@ -12750,7 +12750,7 @@
         <v>93</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F5" s="9">
         <v>7</v>
@@ -12764,7 +12764,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F6">
         <f>SUM(B5,B6)</f>
@@ -12779,7 +12779,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F7">
         <v>28</v>
@@ -12793,7 +12793,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F8" s="9">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10">
         <f>SUM(F4:F9)</f>
@@ -12830,13 +12830,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="8">
         <v>231</v>
@@ -12851,8 +12851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13034,7 +13034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -13070,7 +13070,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -13139,7 +13139,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -13285,7 +13285,7 @@
         <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -13299,7 +13299,7 @@
         <v>252</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -13313,7 +13313,7 @@
         <v>252</v>
       </c>
       <c r="D40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -13327,7 +13327,7 @@
         <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -13341,7 +13341,7 @@
         <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -13355,7 +13355,7 @@
         <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -13369,7 +13369,7 @@
         <v>252</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -13383,7 +13383,7 @@
         <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -13397,7 +13397,7 @@
         <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -13411,7 +13411,7 @@
         <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -13425,7 +13425,7 @@
         <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -13439,7 +13439,7 @@
         <v>252</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -13453,7 +13453,7 @@
         <v>252</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -13467,7 +13467,7 @@
         <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -13481,7 +13481,7 @@
         <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -13495,7 +13495,7 @@
         <v>252</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -13509,7 +13509,7 @@
         <v>252</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -13523,7 +13523,7 @@
         <v>252</v>
       </c>
       <c r="D55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -13537,7 +13537,7 @@
         <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -13551,7 +13551,7 @@
         <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -13565,7 +13565,7 @@
         <v>252</v>
       </c>
       <c r="D58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -13590,7 +13590,7 @@
         <v>252</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -13604,7 +13604,7 @@
         <v>252</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -13618,7 +13618,7 @@
         <v>252</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -13632,7 +13632,7 @@
         <v>252</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -13668,7 +13668,7 @@
         <v>252</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -13682,7 +13682,7 @@
         <v>252</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -13696,7 +13696,7 @@
         <v>252</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -13710,7 +13710,7 @@
         <v>252</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -13724,7 +13724,7 @@
         <v>252</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -13738,7 +13738,7 @@
         <v>252</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -13752,7 +13752,7 @@
         <v>252</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -13766,7 +13766,7 @@
         <v>252</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -13780,7 +13780,7 @@
         <v>252</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -13794,7 +13794,7 @@
         <v>252</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -13808,7 +13808,7 @@
         <v>252</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13834,7 +13834,7 @@
         <v>252</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -14125,7 +14125,7 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -14136,7 +14136,7 @@
         <v>14</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -14147,7 +14147,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D101" t="s">
         <v>277</v>
@@ -14161,7 +14161,7 @@
         <v>14</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -14172,10 +14172,10 @@
         <v>14</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -14186,7 +14186,7 @@
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -14197,7 +14197,7 @@
         <v>14</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -14208,7 +14208,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -14219,7 +14219,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -14230,7 +14230,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -14241,7 +14241,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -14252,7 +14252,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -14263,10 +14263,10 @@
         <v>14</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D111" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -14277,10 +14277,10 @@
         <v>14</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -14291,7 +14291,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -14302,10 +14302,10 @@
         <v>14</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -14316,10 +14316,10 @@
         <v>14</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -14330,7 +14330,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -14341,7 +14341,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -14352,10 +14352,10 @@
         <v>14</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D118" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -14369,7 +14369,7 @@
         <v>273</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -14383,7 +14383,7 @@
         <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -14397,7 +14397,7 @@
         <v>273</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -14411,7 +14411,7 @@
         <v>252</v>
       </c>
       <c r="D122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -14425,7 +14425,7 @@
         <v>252</v>
       </c>
       <c r="D123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -14439,7 +14439,7 @@
         <v>252</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -14453,7 +14453,7 @@
         <v>250</v>
       </c>
       <c r="D125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -14467,7 +14467,7 @@
         <v>252</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -14481,7 +14481,7 @@
         <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -14495,7 +14495,7 @@
         <v>252</v>
       </c>
       <c r="D128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -14509,7 +14509,7 @@
         <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -14523,7 +14523,7 @@
         <v>252</v>
       </c>
       <c r="D130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -14537,7 +14537,7 @@
         <v>252</v>
       </c>
       <c r="D131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -14551,7 +14551,7 @@
         <v>273</v>
       </c>
       <c r="D132" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -14565,7 +14565,7 @@
         <v>252</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -14579,7 +14579,7 @@
         <v>252</v>
       </c>
       <c r="D134" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -14593,7 +14593,7 @@
         <v>252</v>
       </c>
       <c r="D135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -14607,7 +14607,7 @@
         <v>250</v>
       </c>
       <c r="D136" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -14621,7 +14621,7 @@
         <v>274</v>
       </c>
       <c r="D137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -14635,7 +14635,7 @@
         <v>252</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -14643,7 +14643,7 @@
         <v>143</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>249</v>
@@ -14654,7 +14654,7 @@
         <v>144</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>249</v>
@@ -14665,7 +14665,7 @@
         <v>145</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>249</v>
@@ -14676,7 +14676,7 @@
         <v>146</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>249</v>
@@ -14687,7 +14687,7 @@
         <v>147</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>249</v>
@@ -14698,7 +14698,7 @@
         <v>148</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>249</v>
@@ -14709,7 +14709,7 @@
         <v>149</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>249</v>
@@ -14720,7 +14720,7 @@
         <v>150</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>249</v>
@@ -14731,7 +14731,7 @@
         <v>151</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>249</v>
@@ -14742,7 +14742,7 @@
         <v>152</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>249</v>
@@ -14756,7 +14756,7 @@
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -14767,7 +14767,7 @@
         <v>14</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -14778,7 +14778,7 @@
         <v>14</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -14789,7 +14789,7 @@
         <v>14</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -14800,7 +14800,7 @@
         <v>14</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -14811,7 +14811,7 @@
         <v>14</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -14822,7 +14822,7 @@
         <v>14</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -14833,7 +14833,7 @@
         <v>14</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -14844,7 +14844,7 @@
         <v>14</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -14855,7 +14855,7 @@
         <v>14</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B632557-EA75-4DE7-87C7-1D82530F65E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE67235-E4B2-4FC0-8FEB-733C6ED021ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="338">
   <si>
     <t>project name</t>
   </si>
@@ -12851,8 +12851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14137,6 +14137,9 @@
       </c>
       <c r="C100" s="5" t="s">
         <v>302</v>
+      </c>
+      <c r="D100" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE67235-E4B2-4FC0-8FEB-733C6ED021ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A312AD13-EABB-42C4-AE8C-C6D96243B850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="338">
   <si>
     <t>project name</t>
   </si>
@@ -12851,8 +12851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14707,7 +14707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
@@ -14783,8 +14783,11 @@
       <c r="C151" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -14795,7 +14798,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -14805,8 +14808,11 @@
       <c r="C153" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -14817,7 +14823,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -14828,7 +14834,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -14839,7 +14845,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -14850,7 +14856,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -14860,8 +14866,11 @@
       <c r="C158" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -14872,7 +14881,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A312AD13-EABB-42C4-AE8C-C6D96243B850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5AD79-8AA4-4CFA-8985-27DF3A3CB922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
     <sheet name="Projects" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projects!$A$1:$D$243</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="339">
   <si>
     <t>project name</t>
   </si>
@@ -1049,6 +1052,9 @@
   </si>
   <si>
     <t>has 4 sub projects and doesn't use mocking framework</t>
+  </si>
+  <si>
+    <t>Finished v2</t>
   </si>
 </sst>
 </file>
@@ -12849,10 +12855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12861,7 +12867,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12880,76 +12886,83 @@
         <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>248</v>
       </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>248</v>
       </c>
-      <c r="C4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>248</v>
       </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>248</v>
       </c>
-      <c r="C7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>248</v>
       </c>
-      <c r="C8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12957,29 +12970,31 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>248</v>
       </c>
-      <c r="C10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>248</v>
       </c>
-      <c r="C11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12990,7 +13005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -13001,7 +13016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -13012,7 +13027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -13023,7 +13038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -14707,7 +14722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -14718,7 +14733,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -14729,7 +14744,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -14740,7 +14755,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -14751,7 +14766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -14762,7 +14777,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
@@ -14773,7 +14788,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
@@ -14787,7 +14802,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -14798,7 +14813,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -14812,7 +14827,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -14823,7 +14838,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -14834,7 +14849,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -14845,7 +14860,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -14856,7 +14871,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -14870,7 +14885,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -14880,8 +14895,9 @@
       <c r="C159" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
@@ -14891,8 +14907,9 @@
       <c r="C160" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
@@ -14902,8 +14919,9 @@
       <c r="C161" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
@@ -14913,8 +14931,9 @@
       <c r="C162" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
@@ -14924,8 +14943,9 @@
       <c r="C163" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
@@ -14935,8 +14955,9 @@
       <c r="C164" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
@@ -14946,8 +14967,9 @@
       <c r="C165" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
@@ -14957,8 +14979,9 @@
       <c r="C166" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
@@ -14968,8 +14991,9 @@
       <c r="C167" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
@@ -14979,8 +15003,9 @@
       <c r="C168" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -14990,8 +15015,9 @@
       <c r="C169" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -14999,7 +15025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -15009,8 +15035,9 @@
       <c r="C171" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -15020,8 +15047,9 @@
       <c r="C172" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -15031,8 +15059,9 @@
       <c r="C173" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -15042,8 +15071,9 @@
       <c r="C174" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -15053,8 +15083,9 @@
       <c r="C175" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -15064,8 +15095,9 @@
       <c r="C176" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -15075,8 +15107,9 @@
       <c r="C177" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -15086,8 +15119,9 @@
       <c r="C178" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -15095,7 +15129,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -15105,41 +15139,45 @@
       <c r="C180" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B181" t="s">
         <v>248</v>
       </c>
-      <c r="C181" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E181" s="5"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B182" t="s">
         <v>248</v>
       </c>
-      <c r="C182" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B183" t="s">
         <v>248</v>
       </c>
-      <c r="C183" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -15147,51 +15185,55 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B185" t="s">
         <v>248</v>
       </c>
-      <c r="C185" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B186" t="s">
         <v>248</v>
       </c>
-      <c r="C186" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B187" t="s">
         <v>248</v>
       </c>
-      <c r="C187" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B188" t="s">
         <v>248</v>
       </c>
-      <c r="C188" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -15199,18 +15241,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B190" t="s">
         <v>248</v>
       </c>
-      <c r="C190" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -15218,40 +15261,43 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B192" t="s">
         <v>248</v>
       </c>
-      <c r="C192" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B193" t="s">
         <v>248</v>
       </c>
-      <c r="C193" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B194" t="s">
         <v>248</v>
       </c>
-      <c r="C194" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -15259,249 +15305,271 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B196" t="s">
         <v>248</v>
       </c>
-      <c r="C196" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B197" t="s">
         <v>248</v>
       </c>
-      <c r="C197" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B198" t="s">
         <v>248</v>
       </c>
-      <c r="C198" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B199" t="s">
         <v>248</v>
       </c>
-      <c r="C199" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B200" t="s">
         <v>248</v>
       </c>
-      <c r="C200" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B201" t="s">
         <v>248</v>
       </c>
-      <c r="C201" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B202" t="s">
         <v>248</v>
       </c>
-      <c r="C202" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B203" t="s">
         <v>248</v>
       </c>
-      <c r="C203" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B204" t="s">
         <v>248</v>
       </c>
-      <c r="C204" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B205" t="s">
         <v>248</v>
       </c>
-      <c r="C205" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B206" t="s">
         <v>248</v>
       </c>
-      <c r="C206" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B207" t="s">
         <v>248</v>
       </c>
-      <c r="C207" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B208" t="s">
         <v>248</v>
       </c>
-      <c r="C208" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B209" t="s">
         <v>248</v>
       </c>
-      <c r="C209" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B210" t="s">
         <v>248</v>
       </c>
-      <c r="C210" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B211" t="s">
         <v>248</v>
       </c>
-      <c r="C211" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B212" t="s">
         <v>248</v>
       </c>
-      <c r="C212" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B213" t="s">
         <v>248</v>
       </c>
-      <c r="C213" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B214" t="s">
         <v>248</v>
       </c>
-      <c r="C214" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B215" t="s">
         <v>248</v>
       </c>
-      <c r="C215" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B216" t="s">
         <v>248</v>
       </c>
-      <c r="C216" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B217" t="s">
         <v>248</v>
       </c>
-      <c r="C217" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -15509,51 +15577,55 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B219" t="s">
         <v>248</v>
       </c>
-      <c r="C219" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B220" t="s">
         <v>248</v>
       </c>
-      <c r="C220" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B221" t="s">
         <v>248</v>
       </c>
-      <c r="C221" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B222" t="s">
         <v>248</v>
       </c>
-      <c r="C222" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -15561,7 +15633,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -15569,51 +15641,55 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B225" t="s">
         <v>248</v>
       </c>
-      <c r="C225" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B226" t="s">
         <v>248</v>
       </c>
-      <c r="C226" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B227" t="s">
         <v>248</v>
       </c>
-      <c r="C227" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B228" t="s">
         <v>248</v>
       </c>
-      <c r="C228" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -15624,29 +15700,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B230" t="s">
         <v>248</v>
       </c>
-      <c r="C230" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B231" t="s">
         <v>248</v>
       </c>
-      <c r="C231" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -15654,29 +15732,31 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B233" t="s">
         <v>248</v>
       </c>
-      <c r="C233" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E233" s="5"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B234" t="s">
         <v>248</v>
       </c>
-      <c r="C234" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -15684,10 +15764,11 @@
         <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -15695,7 +15776,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -15703,7 +15784,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -15711,7 +15792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -15719,10 +15800,11 @@
         <v>248</v>
       </c>
       <c r="C239" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -15730,10 +15812,11 @@
         <v>248</v>
       </c>
       <c r="C240" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
@@ -15741,10 +15824,11 @@
         <v>248</v>
       </c>
       <c r="C241" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="E241" s="5"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -15752,10 +15836,11 @@
         <v>248</v>
       </c>
       <c r="C242" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="E242" s="5"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>
@@ -15763,7 +15848,7 @@
         <v>248</v>
       </c>
       <c r="C243" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5AD79-8AA4-4CFA-8985-27DF3A3CB922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA3F90-307F-4575-8A5C-D9BDDED859B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Projects" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projects!$A$1:$D$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projects!$C$1:$C$243</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="339">
   <si>
     <t>project name</t>
   </si>
@@ -12857,8 +12857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12888,6 +12888,9 @@
       <c r="C2" t="s">
         <v>338</v>
       </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -12980,6 +12983,9 @@
       <c r="C10" s="5" t="s">
         <v>338</v>
       </c>
+      <c r="D10" t="s">
+        <v>315</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -12992,6 +12998,9 @@
       <c r="C11" s="5" t="s">
         <v>338</v>
       </c>
+      <c r="D11" t="s">
+        <v>315</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -15852,6 +15861,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C243" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA3F90-307F-4575-8A5C-D9BDDED859B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B5A87-7864-432C-89B0-E83F819F0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="339">
   <si>
     <t>project name</t>
   </si>
@@ -12857,8 +12857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12888,9 +12888,6 @@
       <c r="C2" t="s">
         <v>338</v>
       </c>
-      <c r="D2" t="s">
-        <v>315</v>
-      </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -12983,9 +12980,6 @@
       <c r="C10" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D10" t="s">
-        <v>315</v>
-      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -12997,9 +12991,6 @@
       </c>
       <c r="C11" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="D11" t="s">
-        <v>315</v>
       </c>
       <c r="E11" s="5"/>
     </row>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenhao/Documents/Code/Java/Mock/MockResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B5A87-7864-432C-89B0-E83F819F0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2F498-A36A-D143-AB23-A7B1CDA57734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="342">
   <si>
     <t>project name</t>
   </si>
@@ -1055,13 +1055,25 @@
   </si>
   <si>
     <t>Finished v2</t>
+  </si>
+  <si>
+    <t>Gradle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>no git repo, project status: retired</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>no mock import</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1080,9 +1092,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1137,9 +1155,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12417,7 +12435,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12719,14 +12737,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>304</v>
       </c>
@@ -12734,7 +12752,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>251</v>
       </c>
@@ -12748,7 +12766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>252</v>
       </c>
@@ -12762,7 +12780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -12777,7 +12795,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>273</v>
       </c>
@@ -12791,7 +12809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>276</v>
       </c>
@@ -12805,7 +12823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>250</v>
       </c>
@@ -12819,7 +12837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -12834,13 +12852,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>305</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>306</v>
       </c>
@@ -12849,6 +12867,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12857,17 +12876,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12878,7 +12897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12890,7 +12909,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12902,7 +12921,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12914,7 +12933,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12926,7 +12945,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -12938,7 +12957,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -12950,7 +12969,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -12962,7 +12981,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12970,7 +12989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12982,7 +13001,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -12994,7 +13013,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -13005,7 +13024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -13016,7 +13035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -13027,7 +13046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -13038,7 +13057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -13052,7 +13071,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -13063,7 +13082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -13074,7 +13093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -13088,7 +13107,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -13099,7 +13118,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -13110,7 +13129,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="16">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -13121,7 +13140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -13132,7 +13151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -13143,7 +13162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -13157,7 +13176,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="16">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -13168,7 +13187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="16">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -13179,7 +13198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="16">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -13190,7 +13209,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="16">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -13201,7 +13220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -13212,7 +13231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="16">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -13223,7 +13242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="16">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -13234,7 +13253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="16">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -13245,7 +13264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="16">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -13256,7 +13275,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="16">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -13267,7 +13286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="16">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -13278,7 +13297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="16">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -13289,7 +13308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="16">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -13303,7 +13322,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -13317,7 +13336,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -13331,7 +13350,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="16">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -13345,7 +13364,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="16">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -13359,7 +13378,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="16">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -13373,7 +13392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="16">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -13387,7 +13406,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="16">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -13401,7 +13420,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="16">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -13415,7 +13434,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="16">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -13429,7 +13448,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="16">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -13443,7 +13462,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="16">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -13457,7 +13476,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="16">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -13471,7 +13490,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="16">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -13485,7 +13504,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="16">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -13499,7 +13518,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="16">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -13513,7 +13532,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="16">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -13527,7 +13546,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="16">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -13541,7 +13560,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="16">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -13555,7 +13574,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="16">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -13569,7 +13588,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="16">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -13583,7 +13602,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="16">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -13594,7 +13613,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="16">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -13608,7 +13627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="16">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -13622,7 +13641,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="16">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -13636,7 +13655,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -13650,7 +13669,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="16">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -13661,7 +13680,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="16">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -13672,7 +13691,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="16">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -13686,7 +13705,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="16">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -13700,7 +13719,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="16">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -13714,7 +13733,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="16">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -13728,7 +13747,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="16">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -13742,7 +13761,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="16">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -13756,7 +13775,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="16">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -13770,7 +13789,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="16">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -13784,7 +13803,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="16">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -13798,7 +13817,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="16">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -13812,7 +13831,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="16">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -13826,7 +13845,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="16">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -13838,7 +13857,7 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="16">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -13852,7 +13871,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="16">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -13866,7 +13885,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="16">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -13880,7 +13899,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="16">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -13894,7 +13913,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="16">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -13908,7 +13927,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="16">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -13922,7 +13941,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="16">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -13936,7 +13955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="16">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -13950,7 +13969,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="16">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -13964,7 +13983,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="16">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -13978,7 +13997,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="16">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -13992,7 +14011,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="16">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -14006,7 +14025,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="16">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -14020,7 +14039,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="16">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -14034,7 +14053,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="16">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -14048,7 +14067,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="16">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -14062,7 +14081,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="16">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -14076,7 +14095,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="16">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -14090,7 +14109,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="16">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -14104,7 +14123,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="16">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -14118,7 +14137,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="16">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -14132,7 +14151,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="16">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -14143,7 +14162,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="16">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -14157,7 +14176,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="16">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -14171,7 +14190,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="16">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -14182,7 +14201,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" s="3" customFormat="1" ht="16">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -14196,7 +14215,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="16">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -14207,7 +14226,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="16">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -14218,7 +14237,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="16">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -14229,7 +14248,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="16">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -14240,7 +14259,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="16">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -14251,7 +14270,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="16">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -14262,7 +14281,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="16">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -14273,7 +14292,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="16">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -14287,7 +14306,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="16">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -14301,7 +14320,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="16">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -14312,7 +14331,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="16">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -14326,7 +14345,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="16">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -14340,7 +14359,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="16">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -14351,7 +14370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="16">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -14362,7 +14381,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="16">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -14376,7 +14395,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="16">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -14390,7 +14409,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="16">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -14404,7 +14423,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="16">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -14418,7 +14437,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="16">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
@@ -14432,7 +14451,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="16">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -14446,7 +14465,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="16">
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
@@ -14460,7 +14479,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="16">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -14474,7 +14493,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="16">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
@@ -14488,7 +14507,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="16">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -14502,7 +14521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="16">
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
@@ -14516,7 +14535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="16">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -14530,7 +14549,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="16">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -14544,7 +14563,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="16">
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
@@ -14558,7 +14577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="16">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -14572,7 +14591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="16">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -14586,7 +14605,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="16">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
@@ -14600,7 +14619,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="16">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -14614,7 +14633,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="16">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -14628,7 +14647,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="16">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -14642,7 +14661,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="16">
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
@@ -14656,7 +14675,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="16">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -14667,7 +14686,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="16">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -14677,8 +14696,11 @@
       <c r="C140" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
@@ -14689,7 +14711,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="16">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -14700,7 +14722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="16">
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
@@ -14711,7 +14733,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="16">
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
@@ -14722,7 +14744,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="16">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -14732,8 +14754,11 @@
       <c r="C145" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
@@ -14743,8 +14768,11 @@
       <c r="C146" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -14755,7 +14783,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="16">
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
@@ -14765,8 +14793,11 @@
       <c r="C148" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -14777,7 +14808,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="16">
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
@@ -14788,7 +14819,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="16">
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
@@ -14802,7 +14833,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="16">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -14813,7 +14844,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="16">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -14827,7 +14858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="16">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -14838,7 +14869,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="16">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -14849,7 +14880,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -14860,7 +14891,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -14871,7 +14902,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="16">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -14885,7 +14916,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="16">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -14897,7 +14928,7 @@
       </c>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="16">
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
@@ -14909,7 +14940,7 @@
       </c>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="16">
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
@@ -14921,7 +14952,7 @@
       </c>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="16">
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
@@ -14933,7 +14964,7 @@
       </c>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="16">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
@@ -14945,7 +14976,7 @@
       </c>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="16">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
@@ -14957,7 +14988,7 @@
       </c>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="16">
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
@@ -14969,7 +15000,7 @@
       </c>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="16">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
@@ -14981,7 +15012,7 @@
       </c>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="16">
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
@@ -14993,7 +15024,7 @@
       </c>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="16">
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
@@ -15005,7 +15036,7 @@
       </c>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="16">
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
@@ -15017,7 +15048,7 @@
       </c>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="16">
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
@@ -15025,7 +15056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="16">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -15037,7 +15068,7 @@
       </c>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="16">
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
@@ -15049,7 +15080,7 @@
       </c>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="16">
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
@@ -15061,7 +15092,7 @@
       </c>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="16">
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
@@ -15073,7 +15104,7 @@
       </c>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="16">
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
@@ -15085,7 +15116,7 @@
       </c>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="16">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -15097,7 +15128,7 @@
       </c>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="16">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
@@ -15109,7 +15140,7 @@
       </c>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="16">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
@@ -15121,7 +15152,7 @@
       </c>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="16">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -15129,7 +15160,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="16">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
@@ -15141,7 +15172,7 @@
       </c>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="16">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
@@ -15153,7 +15184,7 @@
       </c>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="16">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -15165,7 +15196,7 @@
       </c>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="16">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
@@ -15177,7 +15208,7 @@
       </c>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="16">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
@@ -15185,7 +15216,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="16">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
@@ -15197,7 +15228,7 @@
       </c>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="16">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
@@ -15209,7 +15240,7 @@
       </c>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="16">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
@@ -15221,7 +15252,7 @@
       </c>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="16">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
@@ -15233,7 +15264,7 @@
       </c>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="16">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
@@ -15241,7 +15272,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="16">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -15253,7 +15284,7 @@
       </c>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="16">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -15261,7 +15292,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="16">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -15273,7 +15304,7 @@
       </c>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="16">
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
@@ -15285,7 +15316,7 @@
       </c>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="16">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -15297,7 +15328,7 @@
       </c>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="16">
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
@@ -15305,7 +15336,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="16">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -15317,7 +15348,7 @@
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="16">
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
@@ -15329,7 +15360,7 @@
       </c>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="16">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
@@ -15341,7 +15372,7 @@
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="16">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
@@ -15353,7 +15384,7 @@
       </c>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="16">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -15365,7 +15396,7 @@
       </c>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="16">
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
@@ -15377,7 +15408,7 @@
       </c>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="16">
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
@@ -15389,7 +15420,7 @@
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="16">
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
@@ -15401,7 +15432,7 @@
       </c>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="16">
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
@@ -15413,7 +15444,7 @@
       </c>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="16">
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
@@ -15425,7 +15456,7 @@
       </c>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="16">
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
@@ -15437,7 +15468,7 @@
       </c>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="16">
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
@@ -15449,7 +15480,7 @@
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="16">
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
@@ -15461,7 +15492,7 @@
       </c>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="16">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
@@ -15473,7 +15504,7 @@
       </c>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="16">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -15485,7 +15516,7 @@
       </c>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="16">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
@@ -15497,7 +15528,7 @@
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="16">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
@@ -15509,7 +15540,7 @@
       </c>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="16">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
@@ -15521,7 +15552,7 @@
       </c>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="16">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -15533,7 +15564,7 @@
       </c>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="16">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
@@ -15545,7 +15576,7 @@
       </c>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="16">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
@@ -15557,7 +15588,7 @@
       </c>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="16">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -15569,7 +15600,7 @@
       </c>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="16">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -15577,7 +15608,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="16">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
@@ -15589,7 +15620,7 @@
       </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="16">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
@@ -15601,7 +15632,7 @@
       </c>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="16">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
@@ -15613,7 +15644,7 @@
       </c>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="16">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
@@ -15625,7 +15656,7 @@
       </c>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="16">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
@@ -15633,7 +15664,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="16">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -15641,7 +15672,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="16">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
@@ -15653,7 +15684,7 @@
       </c>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="16">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
@@ -15665,7 +15696,7 @@
       </c>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="16">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -15677,7 +15708,7 @@
       </c>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="16">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
@@ -15689,7 +15720,7 @@
       </c>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="16">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
@@ -15700,7 +15731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="16">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
@@ -15712,7 +15743,7 @@
       </c>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="16">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
@@ -15724,7 +15755,7 @@
       </c>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="16">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
@@ -15732,7 +15763,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="16">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
@@ -15744,7 +15775,7 @@
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="16">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
@@ -15756,7 +15787,7 @@
       </c>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="16">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
@@ -15768,7 +15799,7 @@
       </c>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="16">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
@@ -15776,7 +15807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="16">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
@@ -15784,7 +15815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="16">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
@@ -15792,7 +15823,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="16">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
@@ -15804,7 +15835,7 @@
       </c>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="16">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -15816,7 +15847,7 @@
       </c>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="16">
       <c r="A241" s="1" t="s">
         <v>245</v>
       </c>
@@ -15828,7 +15859,7 @@
       </c>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="16">
       <c r="A242" s="1" t="s">
         <v>246</v>
       </c>
@@ -15840,7 +15871,7 @@
       </c>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="16">
       <c r="A243" s="1" t="s">
         <v>247</v>
       </c>
@@ -15853,6 +15884,7 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:C243" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E030CB-CB16-4DCC-82F6-67730FEF31C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D249559-8672-4898-91BB-01FD1790AFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="344">
   <si>
     <t>project name</t>
   </si>
@@ -1070,6 +1070,9 @@
   </si>
   <si>
     <t>updated in the data folder RQ1</t>
+  </si>
+  <si>
+    <t>can import but cannot get any data for RQ 2,3,4, so deleted RQ1 data.</t>
   </si>
 </sst>
 </file>
@@ -12916,15 +12919,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.77734375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="145.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14310,7 +14313,7 @@
         <v>301</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>302</v>
@@ -14370,9 +14373,6 @@
       <c r="C108" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
@@ -14420,9 +14420,6 @@
       <c r="C112" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E112" t="s">
         <v>277</v>
       </c>
@@ -14448,9 +14445,6 @@
       <c r="C114" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E114" t="s">
         <v>277</v>
       </c>
@@ -14908,9 +14902,6 @@
       </c>
       <c r="C148" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="E148" t="s">
         <v>340</v>

--- a/Apache java projects assignment.xlsx
+++ b/Apache java projects assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\2021 summer general\MockResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedRo\OneDrive\Documents\Academic Texts\Summer Research\MockResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D249559-8672-4898-91BB-01FD1790AFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C9E66-C7C1-4C67-A079-8122CEA221CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="345">
   <si>
     <t>project name</t>
   </si>
@@ -1073,6 +1073,9 @@
   </si>
   <si>
     <t>can import but cannot get any data for RQ 2,3,4, so deleted RQ1 data.</t>
+  </si>
+  <si>
+    <t>Repository named 'creadur-rat', present in RQ1</t>
   </si>
 </sst>
 </file>
@@ -12362,7 +12365,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77E15BEE-689F-475C-B617-69278F32E989}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77E15BEE-689F-475C-B617-69278F32E989}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12919,8 +12922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
@@ -15311,7 +15314,7 @@
         <v>330</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F182" s="5"/>
     </row>
@@ -15633,9 +15636,6 @@
       <c r="C210" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D210" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6">
@@ -15866,9 +15866,6 @@
       <c r="C230" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D230" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6">
@@ -15881,9 +15878,6 @@
       <c r="C231" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D231" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:6">
@@ -15904,9 +15898,6 @@
       <c r="C233" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D233" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6">
@@ -15919,9 +15910,6 @@
       <c r="C234" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D234" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6">
@@ -15934,9 +15922,6 @@
       <c r="C235" t="s">
         <v>330</v>
       </c>
-      <c r="D235" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F235" s="5"/>
     </row>
     <row r="236" spans="1:6">
@@ -15985,9 +15970,6 @@
       <c r="C240" t="s">
         <v>330</v>
       </c>
-      <c r="D240" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6">
@@ -16000,9 +15982,6 @@
       <c r="C241" t="s">
         <v>330</v>
       </c>
-      <c r="D241" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F241" s="5"/>
     </row>
     <row r="242" spans="1:6">
@@ -16015,9 +15994,6 @@
       <c r="C242" t="s">
         <v>330</v>
       </c>
-      <c r="D242" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6">
@@ -16029,9 +16005,6 @@
       </c>
       <c r="C243" t="s">
         <v>330</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
